--- a/data/pagopa-intermediari.xlsx
+++ b/data/pagopa-intermediari.xlsx
@@ -115,7 +115,7 @@
         </is>
       </c>
       <c r="C3" s="1" t="n">
-        <v>1044.0</v>
+        <v>1050.0</v>
       </c>
     </row>
     <row r="4">
@@ -130,7 +130,7 @@
         </is>
       </c>
       <c r="C4" s="1" t="n">
-        <v>707.0</v>
+        <v>731.0</v>
       </c>
     </row>
     <row r="5">
@@ -145,7 +145,7 @@
         </is>
       </c>
       <c r="C5" s="1" t="n">
-        <v>439.0</v>
+        <v>461.0</v>
       </c>
     </row>
     <row r="6">
@@ -196,61 +196,61 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Maggioli SPA</t>
+          <t>Regione Lombardia</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>06188330150</t>
+          <t>80050050154</t>
         </is>
       </c>
       <c r="C9" s="1" t="n">
-        <v>355.0</v>
+        <v>368.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Provincia Autonoma di Trento</t>
+          <t>Maggioli SPA</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>00337460224</t>
+          <t>06188330150</t>
         </is>
       </c>
       <c r="C10" s="1" t="n">
-        <v>327.0</v>
+        <v>360.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Banca Popolare di Sondrio, Società Cooperativa per Azioni</t>
+          <t>Provincia Autonoma di Trento</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>00053810149</t>
+          <t>00337460224</t>
         </is>
       </c>
       <c r="C11" s="1" t="n">
-        <v>295.0</v>
+        <v>331.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Regione Lombardia</t>
+          <t>Banca Popolare di Sondrio, Società Cooperativa per Azioni</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>80050050154</t>
+          <t>00053810149</t>
         </is>
       </c>
       <c r="C12" s="1" t="n">
-        <v>256.0</v>
+        <v>304.0</v>
       </c>
     </row>
     <row r="13">
@@ -265,97 +265,97 @@
         </is>
       </c>
       <c r="C13" s="1" t="n">
-        <v>229.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Dedagroup spa</t>
+          <t>Alto Adige Riscossioni Spa</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>01763870225</t>
+          <t>02805390214</t>
         </is>
       </c>
       <c r="C14" s="1" t="n">
-        <v>183.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Alto Adige Riscossioni Spa</t>
+          <t>Progetti e Soluzioni SPA</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>02805390214</t>
+          <t>06423240727</t>
         </is>
       </c>
       <c r="C15" s="1" t="n">
-        <v>180.0</v>
+        <v>164.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Progetti e Soluzioni SPA</t>
+          <t>P.A. Digitale spa</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>06423240727</t>
+          <t>06628860964</t>
         </is>
       </c>
       <c r="C16" s="1" t="n">
-        <v>161.0</v>
+        <v>143.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Regione Marche</t>
+          <t>APKAPPA S.R.L.</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>80008630420</t>
+          <t>08543640158</t>
         </is>
       </c>
       <c r="C17" s="1" t="n">
-        <v>139.0</v>
+        <v>141.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>APKAPPA S.R.L.</t>
+          <t>Regione Marche</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>08543640158</t>
+          <t>80008630420</t>
         </is>
       </c>
       <c r="C18" s="1" t="n">
-        <v>137.0</v>
+        <v>139.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>P.A. Digitale spa</t>
+          <t>ADVANCED SYSTEMS srl</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>06628860964</t>
+          <t>03383350638</t>
         </is>
       </c>
       <c r="C19" s="1" t="n">
-        <v>136.0</v>
+        <v>123.0</v>
       </c>
     </row>
     <row r="20">
@@ -370,97 +370,97 @@
         </is>
       </c>
       <c r="C20" s="1" t="n">
-        <v>116.0</v>
+        <v>117.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>ADVANCED SYSTEMS srl</t>
+          <t>Regione Basilicata</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>03383350638</t>
+          <t>80002950766</t>
         </is>
       </c>
       <c r="C21" s="1" t="n">
-        <v>109.0</v>
+        <v>106.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Regione Basilicata</t>
+          <t>Regione Toscana</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>80002950766</t>
+          <t>01386030488</t>
         </is>
       </c>
       <c r="C22" s="1" t="n">
-        <v>106.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Regione Toscana</t>
+          <t>ANCITEL</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>01386030488</t>
+          <t>07196850585</t>
         </is>
       </c>
       <c r="C23" s="1" t="n">
-        <v>98.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>ANCITEL</t>
+          <t>Next Step Solution</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>07196850585</t>
+          <t>02554480349</t>
         </is>
       </c>
       <c r="C24" s="1" t="n">
-        <v>90.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Next Step Solution</t>
+          <t>Regione Autonoma Friuli-Venezia Giulia</t>
         </is>
       </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>02554480349</t>
+          <t>80014930327</t>
         </is>
       </c>
       <c r="C25" s="1" t="n">
-        <v>74.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Regione Autonoma Friuli-Venezia Giulia</t>
+          <t>Regione Piemonte</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>80014930327</t>
+          <t>80087670016</t>
         </is>
       </c>
       <c r="C26" s="1" t="n">
-        <v>72.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="27">
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="C27" s="1" t="n">
-        <v>57.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="28">
@@ -550,7 +550,7 @@
         </is>
       </c>
       <c r="C32" s="1" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="33">
@@ -586,91 +586,91 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Regione Piemonte</t>
+          <t>UNIMATICA S.P.A</t>
         </is>
       </c>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>80087670016</t>
+          <t>02098391200</t>
         </is>
       </c>
       <c r="C35" s="1" t="n">
-        <v>39.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>UNIMATICA S.P.A</t>
+          <t>SI.net Servizi Informatici S.r.L.</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>02098391200</t>
+          <t>02743730125</t>
         </is>
       </c>
       <c r="C36" s="1" t="n">
-        <v>38.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>SI.net Servizi Informatici S.r.L.</t>
+          <t>Unicredit, Societa' per Azioni</t>
         </is>
       </c>
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>02743730125</t>
+          <t>00348170101</t>
         </is>
       </c>
       <c r="C37" s="1" t="n">
-        <v>35.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Unicredit, Societa' per Azioni</t>
+          <t>ROMA CAPITALE</t>
         </is>
       </c>
       <c r="B38" s="1" t="inlineStr">
         <is>
-          <t>00348170101</t>
+          <t>02438750586</t>
         </is>
       </c>
       <c r="C38" s="1" t="n">
-        <v>33.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>ROMA CAPITALE</t>
+          <t>PMPay s.r.l.</t>
         </is>
       </c>
       <c r="B39" s="1" t="inlineStr">
         <is>
-          <t>02438750586</t>
+          <t>08747230962</t>
         </is>
       </c>
       <c r="C39" s="1" t="n">
-        <v>32.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>PMPay s.r.l.</t>
+          <t>DCS SOFTWARE E SERVIZI S.R.L.</t>
         </is>
       </c>
       <c r="B40" s="1" t="inlineStr">
         <is>
-          <t>08747230962</t>
+          <t>08063140019</t>
         </is>
       </c>
       <c r="C40" s="1" t="n">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="41">
@@ -691,27 +691,27 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Regione Lazio</t>
+          <t>Siscom SPA</t>
         </is>
       </c>
       <c r="B42" s="1" t="inlineStr">
         <is>
-          <t>80143490581</t>
+          <t>01778000040</t>
         </is>
       </c>
       <c r="C42" s="1" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Nexi SpA</t>
+          <t>Regione Lazio</t>
         </is>
       </c>
       <c r="B43" s="1" t="inlineStr">
         <is>
-          <t>13212880150</t>
+          <t>80143490581</t>
         </is>
       </c>
       <c r="C43" s="1" t="n">
@@ -721,12 +721,12 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>DCS SOFTWARE E SERVIZI S.R.L.</t>
+          <t>Citta' Metropolitana di Roma Capitale</t>
         </is>
       </c>
       <c r="B44" s="1" t="inlineStr">
         <is>
-          <t>08063140019</t>
+          <t>80034390585</t>
         </is>
       </c>
       <c r="C44" s="1" t="n">
@@ -736,16 +736,16 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Citta' Metropolitana di Roma Capitale</t>
+          <t>Nexi SpA</t>
         </is>
       </c>
       <c r="B45" s="1" t="inlineStr">
         <is>
-          <t>80034390585</t>
+          <t>13212880150</t>
         </is>
       </c>
       <c r="C45" s="1" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="46">
@@ -775,18 +775,18 @@
         </is>
       </c>
       <c r="C47" s="1" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Siscom SPA</t>
+          <t>Novares Spa</t>
         </is>
       </c>
       <c r="B48" s="1" t="inlineStr">
         <is>
-          <t>01778000040</t>
+          <t>12105121003</t>
         </is>
       </c>
       <c r="C48" s="1" t="n">
@@ -796,12 +796,12 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Novares Spa</t>
+          <t>Servizi Locali SpA</t>
         </is>
       </c>
       <c r="B49" s="1" t="inlineStr">
         <is>
-          <t>12105121003</t>
+          <t>03170580751</t>
         </is>
       </c>
       <c r="C49" s="1" t="n">
@@ -826,27 +826,27 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Servizi Locali SpA</t>
+          <t>Crédit Agricole Group Solutions Società Consortile per azioni</t>
         </is>
       </c>
       <c r="B51" s="1" t="inlineStr">
         <is>
-          <t>03170580751</t>
+          <t>02771790348</t>
         </is>
       </c>
       <c r="C51" s="1" t="n">
-        <v>13.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Crédit Agricole Group Solutions Società Consortile per azioni</t>
+          <t>Aric Agenzia Regionale di Informatica e Committenza</t>
         </is>
       </c>
       <c r="B52" s="1" t="inlineStr">
         <is>
-          <t>02771790348</t>
+          <t>91022630676</t>
         </is>
       </c>
       <c r="C52" s="1" t="n">
@@ -856,12 +856,12 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Aric Agenzia Regionale di Informatica e Committenza</t>
+          <t>UBI Banca</t>
         </is>
       </c>
       <c r="B53" s="1" t="inlineStr">
         <is>
-          <t>91022630676</t>
+          <t>03053920165</t>
         </is>
       </c>
       <c r="C53" s="1" t="n">
@@ -886,16 +886,16 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>UBI Banca</t>
+          <t>Numera Sistemi e Informatica SpA</t>
         </is>
       </c>
       <c r="B55" s="1" t="inlineStr">
         <is>
-          <t>03053920165</t>
+          <t>01265230902</t>
         </is>
       </c>
       <c r="C55" s="1" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="56">
@@ -916,12 +916,12 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Numera Sistemi e Informatica SpA</t>
+          <t>Comune di Catania</t>
         </is>
       </c>
       <c r="B57" s="1" t="inlineStr">
         <is>
-          <t>01265230902</t>
+          <t>00137020871</t>
         </is>
       </c>
       <c r="C57" s="1" t="n">
@@ -931,16 +931,16 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>Comune di Catania</t>
+          <t>ISWEB S.p.A.</t>
         </is>
       </c>
       <c r="B58" s="1" t="inlineStr">
         <is>
-          <t>00137020871</t>
+          <t>01722270665</t>
         </is>
       </c>
       <c r="C58" s="1" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="59">
@@ -961,27 +961,27 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>ISWEB S.p.A.</t>
+          <t>Engineering Ingegneria Informatica SpA</t>
         </is>
       </c>
       <c r="B60" s="1" t="inlineStr">
         <is>
-          <t>01722270665</t>
+          <t>00967720285</t>
         </is>
       </c>
       <c r="C60" s="1" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Engineering Ingegneria Informatica SpA</t>
+          <t>Agenzia Italiana del Farmaco - AIFA</t>
         </is>
       </c>
       <c r="B61" s="1" t="inlineStr">
         <is>
-          <t>00967720285</t>
+          <t>97345810580</t>
         </is>
       </c>
       <c r="C61" s="1" t="n">
@@ -991,12 +991,12 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>Società Almaviva S.p.A.</t>
+          <t>Banco BPM Società per Azioni</t>
         </is>
       </c>
       <c r="B62" s="1" t="inlineStr">
         <is>
-          <t>08450891000</t>
+          <t>09722490969</t>
         </is>
       </c>
       <c r="C62" s="1" t="n">
@@ -1006,12 +1006,12 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>Banco BPM Società per Azioni</t>
+          <t>ARGO SOFTWARE SRL</t>
         </is>
       </c>
       <c r="B63" s="1" t="inlineStr">
         <is>
-          <t>09722490969</t>
+          <t>00838520880</t>
         </is>
       </c>
       <c r="C63" s="1" t="n">
@@ -1021,12 +1021,12 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>ARCA Servizi s.r.l</t>
+          <t>MegASP S.r.l.</t>
         </is>
       </c>
       <c r="B64" s="1" t="inlineStr">
         <is>
-          <t>09106071005</t>
+          <t>09898030151</t>
         </is>
       </c>
       <c r="C64" s="1" t="n">
@@ -1036,12 +1036,12 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>MegASP S.r.l.</t>
+          <t>Società Almaviva S.p.A.</t>
         </is>
       </c>
       <c r="B65" s="1" t="inlineStr">
         <is>
-          <t>09898030151</t>
+          <t>08450891000</t>
         </is>
       </c>
       <c r="C65" s="1" t="n">
@@ -1051,12 +1051,12 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>CityPoste Payment Digital S.r.l.</t>
+          <t>San Marco SPA</t>
         </is>
       </c>
       <c r="B66" s="1" t="inlineStr">
         <is>
-          <t>02003750672</t>
+          <t>04142440728</t>
         </is>
       </c>
       <c r="C66" s="1" t="n">
@@ -1066,12 +1066,12 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>ICCREA Banca SpA</t>
+          <t>I.C.A. - Imposte Comunali Affini – s.r.l.</t>
         </is>
       </c>
       <c r="B67" s="1" t="inlineStr">
         <is>
-          <t>04774801007</t>
+          <t>02478610583</t>
         </is>
       </c>
       <c r="C67" s="1" t="n">
@@ -1081,12 +1081,12 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>Agenzia Italiana del Farmaco - AIFA</t>
+          <t>ICCREA Banca SpA</t>
         </is>
       </c>
       <c r="B68" s="1" t="inlineStr">
         <is>
-          <t>97345810580</t>
+          <t>04774801007</t>
         </is>
       </c>
       <c r="C68" s="1" t="n">
@@ -1096,12 +1096,12 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>Ministero dello Sviluppo Economico</t>
+          <t>ARCA Servizi s.r.l</t>
         </is>
       </c>
       <c r="B69" s="1" t="inlineStr">
         <is>
-          <t>80230390587</t>
+          <t>09106071005</t>
         </is>
       </c>
       <c r="C69" s="1" t="n">
@@ -1111,12 +1111,12 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>Softline srl</t>
+          <t>Ministero dello Sviluppo Economico</t>
         </is>
       </c>
       <c r="B70" s="1" t="inlineStr">
         <is>
-          <t>12299030150</t>
+          <t>80230390587</t>
         </is>
       </c>
       <c r="C70" s="1" t="n">
@@ -1126,15 +1126,30 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>I.C.A. - Imposte Comunali Affini – s.r.l.</t>
+          <t>Softline srl</t>
         </is>
       </c>
       <c r="B71" s="1" t="inlineStr">
         <is>
-          <t>02478610583</t>
+          <t>12299030150</t>
         </is>
       </c>
       <c r="C71" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>CityPoste Payment Digital S.r.l.</t>
+        </is>
+      </c>
+      <c r="B72" s="1" t="inlineStr">
+        <is>
+          <t>02003750672</t>
+        </is>
+      </c>
+      <c r="C72" s="1" t="n">
         <v>1.0</v>
       </c>
     </row>

--- a/data/pagopa-intermediari.xlsx
+++ b/data/pagopa-intermediari.xlsx
@@ -115,7 +115,7 @@
         </is>
       </c>
       <c r="C3" s="1" t="n">
-        <v>1050.0</v>
+        <v>1051.0</v>
       </c>
     </row>
     <row r="4">
@@ -130,7 +130,7 @@
         </is>
       </c>
       <c r="C4" s="1" t="n">
-        <v>731.0</v>
+        <v>735.0</v>
       </c>
     </row>
     <row r="5">
@@ -145,7 +145,7 @@
         </is>
       </c>
       <c r="C5" s="1" t="n">
-        <v>461.0</v>
+        <v>469.0</v>
       </c>
     </row>
     <row r="6">
@@ -181,31 +181,31 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Lepida Spa</t>
+          <t>Regione Lombardia</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>02770891204</t>
+          <t>80050050154</t>
         </is>
       </c>
       <c r="C8" s="1" t="n">
-        <v>372.0</v>
+        <v>374.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Regione Lombardia</t>
+          <t>Lepida Spa</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>80050050154</t>
+          <t>02770891204</t>
         </is>
       </c>
       <c r="C9" s="1" t="n">
-        <v>368.0</v>
+        <v>372.0</v>
       </c>
     </row>
     <row r="10">
@@ -220,7 +220,7 @@
         </is>
       </c>
       <c r="C10" s="1" t="n">
-        <v>360.0</v>
+        <v>370.0</v>
       </c>
     </row>
     <row r="11">
@@ -250,7 +250,7 @@
         </is>
       </c>
       <c r="C12" s="1" t="n">
-        <v>304.0</v>
+        <v>307.0</v>
       </c>
     </row>
     <row r="13">
@@ -265,7 +265,7 @@
         </is>
       </c>
       <c r="C13" s="1" t="n">
-        <v>230.0</v>
+        <v>232.0</v>
       </c>
     </row>
     <row r="14">
@@ -295,7 +295,7 @@
         </is>
       </c>
       <c r="C15" s="1" t="n">
-        <v>164.0</v>
+        <v>165.0</v>
       </c>
     </row>
     <row r="16">
@@ -310,7 +310,7 @@
         </is>
       </c>
       <c r="C16" s="1" t="n">
-        <v>143.0</v>
+        <v>144.0</v>
       </c>
     </row>
     <row r="17">
@@ -355,7 +355,7 @@
         </is>
       </c>
       <c r="C19" s="1" t="n">
-        <v>123.0</v>
+        <v>126.0</v>
       </c>
     </row>
     <row r="20">
@@ -421,46 +421,46 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Next Step Solution</t>
+          <t>Regione Piemonte</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>02554480349</t>
+          <t>80087670016</t>
         </is>
       </c>
       <c r="C24" s="1" t="n">
-        <v>74.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Regione Autonoma Friuli-Venezia Giulia</t>
+          <t>Next Step Solution</t>
         </is>
       </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>80014930327</t>
+          <t>02554480349</t>
         </is>
       </c>
       <c r="C25" s="1" t="n">
-        <v>73.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Regione Piemonte</t>
+          <t>Regione Autonoma Friuli-Venezia Giulia</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>80087670016</t>
+          <t>80014930327</t>
         </is>
       </c>
       <c r="C26" s="1" t="n">
-        <v>63.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="27">
@@ -550,7 +550,7 @@
         </is>
       </c>
       <c r="C32" s="1" t="n">
-        <v>43.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="33">
@@ -631,31 +631,31 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>ROMA CAPITALE</t>
+          <t>PMPay s.r.l.</t>
         </is>
       </c>
       <c r="B38" s="1" t="inlineStr">
         <is>
-          <t>02438750586</t>
+          <t>08747230962</t>
         </is>
       </c>
       <c r="C38" s="1" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>PMPay s.r.l.</t>
+          <t>ROMA CAPITALE</t>
         </is>
       </c>
       <c r="B39" s="1" t="inlineStr">
         <is>
-          <t>08747230962</t>
+          <t>02438750586</t>
         </is>
       </c>
       <c r="C39" s="1" t="n">
-        <v>29.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="40">
@@ -751,12 +751,12 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Comune di Palermo</t>
+          <t>ANDREANI TRIBUTI srl</t>
         </is>
       </c>
       <c r="B46" s="1" t="inlineStr">
         <is>
-          <t>80016350821</t>
+          <t>01412920439</t>
         </is>
       </c>
       <c r="C46" s="1" t="n">
@@ -766,12 +766,12 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>ANDREANI TRIBUTI srl</t>
+          <t>Comune di Palermo</t>
         </is>
       </c>
       <c r="B47" s="1" t="inlineStr">
         <is>
-          <t>01412920439</t>
+          <t>80016350821</t>
         </is>
       </c>
       <c r="C47" s="1" t="n">
@@ -886,12 +886,12 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>Numera Sistemi e Informatica SpA</t>
+          <t>Comune di Catania</t>
         </is>
       </c>
       <c r="B55" s="1" t="inlineStr">
         <is>
-          <t>01265230902</t>
+          <t>00137020871</t>
         </is>
       </c>
       <c r="C55" s="1" t="n">
@@ -916,12 +916,12 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Comune di Catania</t>
+          <t>Numera Sistemi e Informatica SpA</t>
         </is>
       </c>
       <c r="B57" s="1" t="inlineStr">
         <is>
-          <t>00137020871</t>
+          <t>01265230902</t>
         </is>
       </c>
       <c r="C57" s="1" t="n">
@@ -931,12 +931,12 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>ISWEB S.p.A.</t>
+          <t>Linea Comune Spa</t>
         </is>
       </c>
       <c r="B58" s="1" t="inlineStr">
         <is>
-          <t>01722270665</t>
+          <t>05591950489</t>
         </is>
       </c>
       <c r="C58" s="1" t="n">
@@ -946,12 +946,12 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>Linea Comune Spa</t>
+          <t>ISWEB S.p.A.</t>
         </is>
       </c>
       <c r="B59" s="1" t="inlineStr">
         <is>
-          <t>05591950489</t>
+          <t>01722270665</t>
         </is>
       </c>
       <c r="C59" s="1" t="n">
@@ -961,12 +961,12 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>Engineering Ingegneria Informatica SpA</t>
+          <t>I.C.A. - Imposte Comunali Affini – s.r.l.</t>
         </is>
       </c>
       <c r="B60" s="1" t="inlineStr">
         <is>
-          <t>00967720285</t>
+          <t>02478610583</t>
         </is>
       </c>
       <c r="C60" s="1" t="n">
@@ -976,12 +976,12 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Agenzia Italiana del Farmaco - AIFA</t>
+          <t>ICCREA Banca SpA</t>
         </is>
       </c>
       <c r="B61" s="1" t="inlineStr">
         <is>
-          <t>97345810580</t>
+          <t>04774801007</t>
         </is>
       </c>
       <c r="C61" s="1" t="n">
@@ -991,12 +991,12 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>Banco BPM Società per Azioni</t>
+          <t>Engineering Ingegneria Informatica SpA</t>
         </is>
       </c>
       <c r="B62" s="1" t="inlineStr">
         <is>
-          <t>09722490969</t>
+          <t>00967720285</t>
         </is>
       </c>
       <c r="C62" s="1" t="n">
@@ -1006,12 +1006,12 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>ARGO SOFTWARE SRL</t>
+          <t>Ministero dello Sviluppo Economico</t>
         </is>
       </c>
       <c r="B63" s="1" t="inlineStr">
         <is>
-          <t>00838520880</t>
+          <t>80230390587</t>
         </is>
       </c>
       <c r="C63" s="1" t="n">
@@ -1021,12 +1021,12 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>MegASP S.r.l.</t>
+          <t>Softline srl</t>
         </is>
       </c>
       <c r="B64" s="1" t="inlineStr">
         <is>
-          <t>09898030151</t>
+          <t>12299030150</t>
         </is>
       </c>
       <c r="C64" s="1" t="n">
@@ -1036,12 +1036,12 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Società Almaviva S.p.A.</t>
+          <t>CityPoste Payment Digital S.r.l.</t>
         </is>
       </c>
       <c r="B65" s="1" t="inlineStr">
         <is>
-          <t>08450891000</t>
+          <t>02003750672</t>
         </is>
       </c>
       <c r="C65" s="1" t="n">
@@ -1051,12 +1051,12 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>San Marco SPA</t>
+          <t>Agenzia Italiana del Farmaco - AIFA</t>
         </is>
       </c>
       <c r="B66" s="1" t="inlineStr">
         <is>
-          <t>04142440728</t>
+          <t>97345810580</t>
         </is>
       </c>
       <c r="C66" s="1" t="n">
@@ -1066,12 +1066,12 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>I.C.A. - Imposte Comunali Affini – s.r.l.</t>
+          <t>Società Almaviva S.p.A.</t>
         </is>
       </c>
       <c r="B67" s="1" t="inlineStr">
         <is>
-          <t>02478610583</t>
+          <t>08450891000</t>
         </is>
       </c>
       <c r="C67" s="1" t="n">
@@ -1081,12 +1081,12 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>ICCREA Banca SpA</t>
+          <t>Banco BPM Società per Azioni</t>
         </is>
       </c>
       <c r="B68" s="1" t="inlineStr">
         <is>
-          <t>04774801007</t>
+          <t>09722490969</t>
         </is>
       </c>
       <c r="C68" s="1" t="n">
@@ -1096,12 +1096,12 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>ARCA Servizi s.r.l</t>
+          <t>ARGO SOFTWARE SRL</t>
         </is>
       </c>
       <c r="B69" s="1" t="inlineStr">
         <is>
-          <t>09106071005</t>
+          <t>00838520880</t>
         </is>
       </c>
       <c r="C69" s="1" t="n">
@@ -1111,12 +1111,12 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>Ministero dello Sviluppo Economico</t>
+          <t>MegASP S.r.l.</t>
         </is>
       </c>
       <c r="B70" s="1" t="inlineStr">
         <is>
-          <t>80230390587</t>
+          <t>09898030151</t>
         </is>
       </c>
       <c r="C70" s="1" t="n">
@@ -1126,12 +1126,12 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Softline srl</t>
+          <t>ARCA Servizi s.r.l</t>
         </is>
       </c>
       <c r="B71" s="1" t="inlineStr">
         <is>
-          <t>12299030150</t>
+          <t>09106071005</t>
         </is>
       </c>
       <c r="C71" s="1" t="n">
@@ -1141,12 +1141,12 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>CityPoste Payment Digital S.r.l.</t>
+          <t>San Marco SPA</t>
         </is>
       </c>
       <c r="B72" s="1" t="inlineStr">
         <is>
-          <t>02003750672</t>
+          <t>04142440728</t>
         </is>
       </c>
       <c r="C72" s="1" t="n">

--- a/data/pagopa-intermediari.xlsx
+++ b/data/pagopa-intermediari.xlsx
@@ -130,7 +130,7 @@
         </is>
       </c>
       <c r="C4" s="1" t="n">
-        <v>735.0</v>
+        <v>739.0</v>
       </c>
     </row>
     <row r="5">
@@ -145,7 +145,7 @@
         </is>
       </c>
       <c r="C5" s="1" t="n">
-        <v>469.0</v>
+        <v>472.0</v>
       </c>
     </row>
     <row r="6">
@@ -190,7 +190,7 @@
         </is>
       </c>
       <c r="C8" s="1" t="n">
-        <v>374.0</v>
+        <v>375.0</v>
       </c>
     </row>
     <row r="9">
@@ -220,7 +220,7 @@
         </is>
       </c>
       <c r="C10" s="1" t="n">
-        <v>370.0</v>
+        <v>371.0</v>
       </c>
     </row>
     <row r="11">
@@ -250,7 +250,7 @@
         </is>
       </c>
       <c r="C12" s="1" t="n">
-        <v>307.0</v>
+        <v>311.0</v>
       </c>
     </row>
     <row r="13">
@@ -295,7 +295,7 @@
         </is>
       </c>
       <c r="C15" s="1" t="n">
-        <v>165.0</v>
+        <v>166.0</v>
       </c>
     </row>
     <row r="16">
@@ -310,7 +310,7 @@
         </is>
       </c>
       <c r="C16" s="1" t="n">
-        <v>144.0</v>
+        <v>146.0</v>
       </c>
     </row>
     <row r="17">
@@ -430,7 +430,7 @@
         </is>
       </c>
       <c r="C24" s="1" t="n">
-        <v>79.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="25">
@@ -601,31 +601,31 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>SI.net Servizi Informatici S.r.L.</t>
+          <t>ROMA CAPITALE</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>02743730125</t>
+          <t>02438750586</t>
         </is>
       </c>
       <c r="C36" s="1" t="n">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Unicredit, Societa' per Azioni</t>
+          <t>SI.net Servizi Informatici S.r.L.</t>
         </is>
       </c>
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>00348170101</t>
+          <t>02743730125</t>
         </is>
       </c>
       <c r="C37" s="1" t="n">
-        <v>33.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="38">
@@ -646,16 +646,16 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>ROMA CAPITALE</t>
+          <t>Unicredit, Societa' per Azioni</t>
         </is>
       </c>
       <c r="B39" s="1" t="inlineStr">
         <is>
-          <t>02438750586</t>
+          <t>00348170101</t>
         </is>
       </c>
       <c r="C39" s="1" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="40">
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="C40" s="1" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="41">
@@ -700,7 +700,7 @@
         </is>
       </c>
       <c r="C42" s="1" t="n">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="43">
@@ -721,12 +721,12 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Citta' Metropolitana di Roma Capitale</t>
+          <t>Nexi SpA</t>
         </is>
       </c>
       <c r="B44" s="1" t="inlineStr">
         <is>
-          <t>80034390585</t>
+          <t>13212880150</t>
         </is>
       </c>
       <c r="C44" s="1" t="n">
@@ -736,12 +736,12 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Nexi SpA</t>
+          <t>Citta' Metropolitana di Roma Capitale</t>
         </is>
       </c>
       <c r="B45" s="1" t="inlineStr">
         <is>
-          <t>13212880150</t>
+          <t>80034390585</t>
         </is>
       </c>
       <c r="C45" s="1" t="n">
@@ -751,12 +751,12 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>ANDREANI TRIBUTI srl</t>
+          <t>Comune di Palermo</t>
         </is>
       </c>
       <c r="B46" s="1" t="inlineStr">
         <is>
-          <t>01412920439</t>
+          <t>80016350821</t>
         </is>
       </c>
       <c r="C46" s="1" t="n">
@@ -766,12 +766,12 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Comune di Palermo</t>
+          <t>ANDREANI TRIBUTI srl</t>
         </is>
       </c>
       <c r="B47" s="1" t="inlineStr">
         <is>
-          <t>80016350821</t>
+          <t>01412920439</t>
         </is>
       </c>
       <c r="C47" s="1" t="n">
@@ -871,12 +871,12 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>Si.Form Consulting srl</t>
+          <t>Numera Sistemi e Informatica SpA</t>
         </is>
       </c>
       <c r="B54" s="1" t="inlineStr">
         <is>
-          <t>03943960827</t>
+          <t>01265230902</t>
         </is>
       </c>
       <c r="C54" s="1" t="n">
@@ -886,16 +886,16 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>Comune di Catania</t>
+          <t>Si.Form Consulting srl</t>
         </is>
       </c>
       <c r="B55" s="1" t="inlineStr">
         <is>
-          <t>00137020871</t>
+          <t>03943960827</t>
         </is>
       </c>
       <c r="C55" s="1" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="56">
@@ -916,12 +916,12 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Numera Sistemi e Informatica SpA</t>
+          <t>Comune di Catania</t>
         </is>
       </c>
       <c r="B57" s="1" t="inlineStr">
         <is>
-          <t>01265230902</t>
+          <t>00137020871</t>
         </is>
       </c>
       <c r="C57" s="1" t="n">
@@ -931,12 +931,12 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>Linea Comune Spa</t>
+          <t>ISWEB S.p.A.</t>
         </is>
       </c>
       <c r="B58" s="1" t="inlineStr">
         <is>
-          <t>05591950489</t>
+          <t>01722270665</t>
         </is>
       </c>
       <c r="C58" s="1" t="n">
@@ -946,12 +946,12 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>ISWEB S.p.A.</t>
+          <t>Linea Comune Spa</t>
         </is>
       </c>
       <c r="B59" s="1" t="inlineStr">
         <is>
-          <t>01722270665</t>
+          <t>05591950489</t>
         </is>
       </c>
       <c r="C59" s="1" t="n">
@@ -961,27 +961,27 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>I.C.A. - Imposte Comunali Affini – s.r.l.</t>
+          <t>ARCA Servizi s.r.l</t>
         </is>
       </c>
       <c r="B60" s="1" t="inlineStr">
         <is>
-          <t>02478610583</t>
+          <t>09106071005</t>
         </is>
       </c>
       <c r="C60" s="1" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>ICCREA Banca SpA</t>
+          <t>Banco BPM Società per Azioni</t>
         </is>
       </c>
       <c r="B61" s="1" t="inlineStr">
         <is>
-          <t>04774801007</t>
+          <t>09722490969</t>
         </is>
       </c>
       <c r="C61" s="1" t="n">
@@ -991,12 +991,12 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>Engineering Ingegneria Informatica SpA</t>
+          <t>ARGO SOFTWARE SRL</t>
         </is>
       </c>
       <c r="B62" s="1" t="inlineStr">
         <is>
-          <t>00967720285</t>
+          <t>00838520880</t>
         </is>
       </c>
       <c r="C62" s="1" t="n">
@@ -1006,12 +1006,12 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>Ministero dello Sviluppo Economico</t>
+          <t>Società Almaviva S.p.A.</t>
         </is>
       </c>
       <c r="B63" s="1" t="inlineStr">
         <is>
-          <t>80230390587</t>
+          <t>08450891000</t>
         </is>
       </c>
       <c r="C63" s="1" t="n">
@@ -1021,12 +1021,12 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>Softline srl</t>
+          <t>MegASP S.r.l.</t>
         </is>
       </c>
       <c r="B64" s="1" t="inlineStr">
         <is>
-          <t>12299030150</t>
+          <t>09898030151</t>
         </is>
       </c>
       <c r="C64" s="1" t="n">
@@ -1036,12 +1036,12 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>CityPoste Payment Digital S.r.l.</t>
+          <t>San Marco SPA</t>
         </is>
       </c>
       <c r="B65" s="1" t="inlineStr">
         <is>
-          <t>02003750672</t>
+          <t>04142440728</t>
         </is>
       </c>
       <c r="C65" s="1" t="n">
@@ -1051,12 +1051,12 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>Agenzia Italiana del Farmaco - AIFA</t>
+          <t>I.C.A. - Imposte Comunali Affini – s.r.l.</t>
         </is>
       </c>
       <c r="B66" s="1" t="inlineStr">
         <is>
-          <t>97345810580</t>
+          <t>02478610583</t>
         </is>
       </c>
       <c r="C66" s="1" t="n">
@@ -1066,12 +1066,12 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>Società Almaviva S.p.A.</t>
+          <t>e-SED Società Cooperativa</t>
         </is>
       </c>
       <c r="B67" s="1" t="inlineStr">
         <is>
-          <t>08450891000</t>
+          <t>02695640421</t>
         </is>
       </c>
       <c r="C67" s="1" t="n">
@@ -1081,12 +1081,12 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>Banco BPM Società per Azioni</t>
+          <t>Ministero dello Sviluppo Economico</t>
         </is>
       </c>
       <c r="B68" s="1" t="inlineStr">
         <is>
-          <t>09722490969</t>
+          <t>80230390587</t>
         </is>
       </c>
       <c r="C68" s="1" t="n">
@@ -1096,12 +1096,12 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>ARGO SOFTWARE SRL</t>
+          <t>Softline srl</t>
         </is>
       </c>
       <c r="B69" s="1" t="inlineStr">
         <is>
-          <t>00838520880</t>
+          <t>12299030150</t>
         </is>
       </c>
       <c r="C69" s="1" t="n">
@@ -1111,12 +1111,12 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>MegASP S.r.l.</t>
+          <t>CityPoste Payment Digital S.r.l.</t>
         </is>
       </c>
       <c r="B70" s="1" t="inlineStr">
         <is>
-          <t>09898030151</t>
+          <t>02003750672</t>
         </is>
       </c>
       <c r="C70" s="1" t="n">
@@ -1126,12 +1126,12 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>ARCA Servizi s.r.l</t>
+          <t>ICCREA Banca SpA</t>
         </is>
       </c>
       <c r="B71" s="1" t="inlineStr">
         <is>
-          <t>09106071005</t>
+          <t>04774801007</t>
         </is>
       </c>
       <c r="C71" s="1" t="n">
@@ -1141,15 +1141,30 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>San Marco SPA</t>
+          <t>Engineering Ingegneria Informatica SpA</t>
         </is>
       </c>
       <c r="B72" s="1" t="inlineStr">
         <is>
-          <t>04142440728</t>
+          <t>00967720285</t>
         </is>
       </c>
       <c r="C72" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>Agenzia Italiana del Farmaco - AIFA</t>
+        </is>
+      </c>
+      <c r="B73" s="1" t="inlineStr">
+        <is>
+          <t>97345810580</t>
+        </is>
+      </c>
+      <c r="C73" s="1" t="n">
         <v>1.0</v>
       </c>
     </row>

--- a/data/pagopa-intermediari.xlsx
+++ b/data/pagopa-intermediari.xlsx
@@ -115,7 +115,7 @@
         </is>
       </c>
       <c r="C3" s="1" t="n">
-        <v>1051.0</v>
+        <v>1060.0</v>
       </c>
     </row>
     <row r="4">
@@ -130,7 +130,7 @@
         </is>
       </c>
       <c r="C4" s="1" t="n">
-        <v>739.0</v>
+        <v>750.0</v>
       </c>
     </row>
     <row r="5">
@@ -145,82 +145,82 @@
         </is>
       </c>
       <c r="C5" s="1" t="n">
-        <v>472.0</v>
+        <v>483.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Regione del Veneto</t>
+          <t>Regione Lombardia</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>80007580279</t>
+          <t>80050050154</t>
         </is>
       </c>
       <c r="C6" s="1" t="n">
-        <v>402.0</v>
+        <v>418.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>CREDEMTEL SpA</t>
+          <t>Regione del Veneto</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>01378570350</t>
+          <t>80007580279</t>
         </is>
       </c>
       <c r="C7" s="1" t="n">
-        <v>400.0</v>
+        <v>409.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Regione Lombardia</t>
+          <t>CREDEMTEL SpA</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>80050050154</t>
+          <t>01378570350</t>
         </is>
       </c>
       <c r="C8" s="1" t="n">
-        <v>375.0</v>
+        <v>403.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Lepida Spa</t>
+          <t>Maggioli SPA</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>02770891204</t>
+          <t>06188330150</t>
         </is>
       </c>
       <c r="C9" s="1" t="n">
-        <v>372.0</v>
+        <v>378.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Maggioli SPA</t>
+          <t>Lepida Spa</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>06188330150</t>
+          <t>02770891204</t>
         </is>
       </c>
       <c r="C10" s="1" t="n">
-        <v>371.0</v>
+        <v>373.0</v>
       </c>
     </row>
     <row r="11">
@@ -250,7 +250,7 @@
         </is>
       </c>
       <c r="C12" s="1" t="n">
-        <v>311.0</v>
+        <v>320.0</v>
       </c>
     </row>
     <row r="13">
@@ -265,7 +265,7 @@
         </is>
       </c>
       <c r="C13" s="1" t="n">
-        <v>232.0</v>
+        <v>233.0</v>
       </c>
     </row>
     <row r="14">
@@ -295,7 +295,7 @@
         </is>
       </c>
       <c r="C15" s="1" t="n">
-        <v>166.0</v>
+        <v>173.0</v>
       </c>
     </row>
     <row r="16">
@@ -310,7 +310,7 @@
         </is>
       </c>
       <c r="C16" s="1" t="n">
-        <v>146.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="17">
@@ -325,7 +325,7 @@
         </is>
       </c>
       <c r="C17" s="1" t="n">
-        <v>141.0</v>
+        <v>142.0</v>
       </c>
     </row>
     <row r="18">
@@ -340,7 +340,7 @@
         </is>
       </c>
       <c r="C18" s="1" t="n">
-        <v>139.0</v>
+        <v>141.0</v>
       </c>
     </row>
     <row r="19">
@@ -355,7 +355,7 @@
         </is>
       </c>
       <c r="C19" s="1" t="n">
-        <v>126.0</v>
+        <v>131.0</v>
       </c>
     </row>
     <row r="20">
@@ -370,7 +370,7 @@
         </is>
       </c>
       <c r="C20" s="1" t="n">
-        <v>117.0</v>
+        <v>118.0</v>
       </c>
     </row>
     <row r="21">
@@ -400,33 +400,33 @@
         </is>
       </c>
       <c r="C22" s="1" t="n">
-        <v>100.0</v>
+        <v>102.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>ANCITEL</t>
+          <t>Regione Piemonte</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>07196850585</t>
+          <t>80087670016</t>
         </is>
       </c>
       <c r="C23" s="1" t="n">
-        <v>90.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Regione Piemonte</t>
+          <t>ANCITEL</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>80087670016</t>
+          <t>07196850585</t>
         </is>
       </c>
       <c r="C24" s="1" t="n">
@@ -445,7 +445,7 @@
         </is>
       </c>
       <c r="C25" s="1" t="n">
-        <v>74.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="26">
@@ -460,7 +460,7 @@
         </is>
       </c>
       <c r="C26" s="1" t="n">
-        <v>73.0</v>
+        <v>76.0</v>
       </c>
     </row>
     <row r="27">
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="C27" s="1" t="n">
-        <v>59.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="28">
@@ -550,7 +550,7 @@
         </is>
       </c>
       <c r="C32" s="1" t="n">
-        <v>44.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="33">
@@ -565,7 +565,7 @@
         </is>
       </c>
       <c r="C33" s="1" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="34">
@@ -601,46 +601,46 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>ROMA CAPITALE</t>
+          <t>PMPay s.r.l.</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>02438750586</t>
+          <t>08747230962</t>
         </is>
       </c>
       <c r="C36" s="1" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>SI.net Servizi Informatici S.r.L.</t>
+          <t>ROMA CAPITALE</t>
         </is>
       </c>
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>02743730125</t>
+          <t>02438750586</t>
         </is>
       </c>
       <c r="C37" s="1" t="n">
-        <v>35.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>PMPay s.r.l.</t>
+          <t>SI.net Servizi Informatici S.r.L.</t>
         </is>
       </c>
       <c r="B38" s="1" t="inlineStr">
         <is>
-          <t>08747230962</t>
+          <t>02743730125</t>
         </is>
       </c>
       <c r="C38" s="1" t="n">
-        <v>33.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="39">
@@ -685,7 +685,7 @@
         </is>
       </c>
       <c r="C41" s="1" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="42">
@@ -700,18 +700,18 @@
         </is>
       </c>
       <c r="C42" s="1" t="n">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Regione Lazio</t>
+          <t>Nexi SpA</t>
         </is>
       </c>
       <c r="B43" s="1" t="inlineStr">
         <is>
-          <t>80143490581</t>
+          <t>13212880150</t>
         </is>
       </c>
       <c r="C43" s="1" t="n">
@@ -721,12 +721,12 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Nexi SpA</t>
+          <t>ANDREANI TRIBUTI srl</t>
         </is>
       </c>
       <c r="B44" s="1" t="inlineStr">
         <is>
-          <t>13212880150</t>
+          <t>01412920439</t>
         </is>
       </c>
       <c r="C44" s="1" t="n">
@@ -736,12 +736,12 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Citta' Metropolitana di Roma Capitale</t>
+          <t>Regione Lazio</t>
         </is>
       </c>
       <c r="B45" s="1" t="inlineStr">
         <is>
-          <t>80034390585</t>
+          <t>80143490581</t>
         </is>
       </c>
       <c r="C45" s="1" t="n">
@@ -751,27 +751,27 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Comune di Palermo</t>
+          <t>Citta' Metropolitana di Roma Capitale</t>
         </is>
       </c>
       <c r="B46" s="1" t="inlineStr">
         <is>
-          <t>80016350821</t>
+          <t>80034390585</t>
         </is>
       </c>
       <c r="C46" s="1" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>ANDREANI TRIBUTI srl</t>
+          <t>Comune di Palermo</t>
         </is>
       </c>
       <c r="B47" s="1" t="inlineStr">
         <is>
-          <t>01412920439</t>
+          <t>80016350821</t>
         </is>
       </c>
       <c r="C47" s="1" t="n">
@@ -790,7 +790,7 @@
         </is>
       </c>
       <c r="C48" s="1" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="49">
@@ -826,72 +826,72 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Crédit Agricole Group Solutions Società Consortile per azioni</t>
+          <t>Numera Sistemi e Informatica SpA</t>
         </is>
       </c>
       <c r="B51" s="1" t="inlineStr">
         <is>
-          <t>02771790348</t>
+          <t>01265230902</t>
         </is>
       </c>
       <c r="C51" s="1" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Aric Agenzia Regionale di Informatica e Committenza</t>
+          <t>Si.Form Consulting srl</t>
         </is>
       </c>
       <c r="B52" s="1" t="inlineStr">
         <is>
-          <t>91022630676</t>
+          <t>03943960827</t>
         </is>
       </c>
       <c r="C52" s="1" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>UBI Banca</t>
+          <t>Crédit Agricole Group Solutions Società Consortile per azioni</t>
         </is>
       </c>
       <c r="B53" s="1" t="inlineStr">
         <is>
-          <t>03053920165</t>
+          <t>02771790348</t>
         </is>
       </c>
       <c r="C53" s="1" t="n">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>Numera Sistemi e Informatica SpA</t>
+          <t>Aric Agenzia Regionale di Informatica e Committenza</t>
         </is>
       </c>
       <c r="B54" s="1" t="inlineStr">
         <is>
-          <t>01265230902</t>
+          <t>91022630676</t>
         </is>
       </c>
       <c r="C54" s="1" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>Si.Form Consulting srl</t>
+          <t>UBI Banca</t>
         </is>
       </c>
       <c r="B55" s="1" t="inlineStr">
         <is>
-          <t>03943960827</t>
+          <t>03053920165</t>
         </is>
       </c>
       <c r="C55" s="1" t="n">
@@ -931,12 +931,12 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>ISWEB S.p.A.</t>
+          <t>Linea Comune Spa</t>
         </is>
       </c>
       <c r="B58" s="1" t="inlineStr">
         <is>
-          <t>01722270665</t>
+          <t>05591950489</t>
         </is>
       </c>
       <c r="C58" s="1" t="n">
@@ -946,12 +946,12 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>Linea Comune Spa</t>
+          <t>ISWEB S.p.A.</t>
         </is>
       </c>
       <c r="B59" s="1" t="inlineStr">
         <is>
-          <t>05591950489</t>
+          <t>01722270665</t>
         </is>
       </c>
       <c r="C59" s="1" t="n">
@@ -961,72 +961,72 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>ARCA Servizi s.r.l</t>
+          <t>e-SED Società Cooperativa</t>
         </is>
       </c>
       <c r="B60" s="1" t="inlineStr">
         <is>
-          <t>09106071005</t>
+          <t>02695640421</t>
         </is>
       </c>
       <c r="C60" s="1" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Banco BPM Società per Azioni</t>
+          <t>ICCREA Banca SpA</t>
         </is>
       </c>
       <c r="B61" s="1" t="inlineStr">
         <is>
-          <t>09722490969</t>
+          <t>04774801007</t>
         </is>
       </c>
       <c r="C61" s="1" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>ARGO SOFTWARE SRL</t>
+          <t>ARCA Servizi s.r.l</t>
         </is>
       </c>
       <c r="B62" s="1" t="inlineStr">
         <is>
-          <t>00838520880</t>
+          <t>09106071005</t>
         </is>
       </c>
       <c r="C62" s="1" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>Società Almaviva S.p.A.</t>
+          <t>CityPoste Payment Digital S.r.l.</t>
         </is>
       </c>
       <c r="B63" s="1" t="inlineStr">
         <is>
-          <t>08450891000</t>
+          <t>02003750672</t>
         </is>
       </c>
       <c r="C63" s="1" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>MegASP S.r.l.</t>
+          <t>Ministero dello Sviluppo Economico</t>
         </is>
       </c>
       <c r="B64" s="1" t="inlineStr">
         <is>
-          <t>09898030151</t>
+          <t>80230390587</t>
         </is>
       </c>
       <c r="C64" s="1" t="n">
@@ -1036,12 +1036,12 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>San Marco SPA</t>
+          <t>Softline srl</t>
         </is>
       </c>
       <c r="B65" s="1" t="inlineStr">
         <is>
-          <t>04142440728</t>
+          <t>12299030150</t>
         </is>
       </c>
       <c r="C65" s="1" t="n">
@@ -1066,12 +1066,12 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>e-SED Società Cooperativa</t>
+          <t>Banco BPM Società per Azioni</t>
         </is>
       </c>
       <c r="B67" s="1" t="inlineStr">
         <is>
-          <t>02695640421</t>
+          <t>09722490969</t>
         </is>
       </c>
       <c r="C67" s="1" t="n">
@@ -1081,12 +1081,12 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>Ministero dello Sviluppo Economico</t>
+          <t>ARGO SOFTWARE SRL</t>
         </is>
       </c>
       <c r="B68" s="1" t="inlineStr">
         <is>
-          <t>80230390587</t>
+          <t>00838520880</t>
         </is>
       </c>
       <c r="C68" s="1" t="n">
@@ -1096,12 +1096,12 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>Softline srl</t>
+          <t>Engineering Ingegneria Informatica SpA</t>
         </is>
       </c>
       <c r="B69" s="1" t="inlineStr">
         <is>
-          <t>12299030150</t>
+          <t>00967720285</t>
         </is>
       </c>
       <c r="C69" s="1" t="n">
@@ -1111,12 +1111,12 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>CityPoste Payment Digital S.r.l.</t>
+          <t>BANCA MONTE DEI PASCHI DI SIENA</t>
         </is>
       </c>
       <c r="B70" s="1" t="inlineStr">
         <is>
-          <t>02003750672</t>
+          <t>00884060526</t>
         </is>
       </c>
       <c r="C70" s="1" t="n">
@@ -1126,12 +1126,12 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>ICCREA Banca SpA</t>
+          <t>San Marco SPA</t>
         </is>
       </c>
       <c r="B71" s="1" t="inlineStr">
         <is>
-          <t>04774801007</t>
+          <t>04142440728</t>
         </is>
       </c>
       <c r="C71" s="1" t="n">
@@ -1141,12 +1141,12 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>Engineering Ingegneria Informatica SpA</t>
+          <t>Agenzia Italiana del Farmaco - AIFA</t>
         </is>
       </c>
       <c r="B72" s="1" t="inlineStr">
         <is>
-          <t>00967720285</t>
+          <t>97345810580</t>
         </is>
       </c>
       <c r="C72" s="1" t="n">
@@ -1156,15 +1156,30 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>Agenzia Italiana del Farmaco - AIFA</t>
+          <t>MegASP S.r.l.</t>
         </is>
       </c>
       <c r="B73" s="1" t="inlineStr">
         <is>
-          <t>97345810580</t>
+          <t>09898030151</t>
         </is>
       </c>
       <c r="C73" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>Società Almaviva S.p.A.</t>
+        </is>
+      </c>
+      <c r="B74" s="1" t="inlineStr">
+        <is>
+          <t>08450891000</t>
+        </is>
+      </c>
+      <c r="C74" s="1" t="n">
         <v>1.0</v>
       </c>
     </row>

--- a/data/pagopa-intermediari.xlsx
+++ b/data/pagopa-intermediari.xlsx
@@ -130,7 +130,7 @@
         </is>
       </c>
       <c r="C4" s="1" t="n">
-        <v>750.0</v>
+        <v>759.0</v>
       </c>
     </row>
     <row r="5">
@@ -145,7 +145,7 @@
         </is>
       </c>
       <c r="C5" s="1" t="n">
-        <v>483.0</v>
+        <v>492.0</v>
       </c>
     </row>
     <row r="6">
@@ -160,7 +160,7 @@
         </is>
       </c>
       <c r="C6" s="1" t="n">
-        <v>418.0</v>
+        <v>442.0</v>
       </c>
     </row>
     <row r="7">
@@ -205,7 +205,7 @@
         </is>
       </c>
       <c r="C9" s="1" t="n">
-        <v>378.0</v>
+        <v>386.0</v>
       </c>
     </row>
     <row r="10">
@@ -250,7 +250,7 @@
         </is>
       </c>
       <c r="C12" s="1" t="n">
-        <v>320.0</v>
+        <v>325.0</v>
       </c>
     </row>
     <row r="13">
@@ -265,37 +265,37 @@
         </is>
       </c>
       <c r="C13" s="1" t="n">
-        <v>233.0</v>
+        <v>235.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Alto Adige Riscossioni Spa</t>
+          <t>Progetti e Soluzioni SPA</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>02805390214</t>
+          <t>06423240727</t>
         </is>
       </c>
       <c r="C14" s="1" t="n">
-        <v>180.0</v>
+        <v>181.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Progetti e Soluzioni SPA</t>
+          <t>Alto Adige Riscossioni Spa</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>06423240727</t>
+          <t>02805390214</t>
         </is>
       </c>
       <c r="C15" s="1" t="n">
-        <v>173.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="16">
@@ -310,7 +310,7 @@
         </is>
       </c>
       <c r="C16" s="1" t="n">
-        <v>150.0</v>
+        <v>154.0</v>
       </c>
     </row>
     <row r="17">
@@ -325,7 +325,7 @@
         </is>
       </c>
       <c r="C17" s="1" t="n">
-        <v>142.0</v>
+        <v>148.0</v>
       </c>
     </row>
     <row r="18">
@@ -340,7 +340,7 @@
         </is>
       </c>
       <c r="C18" s="1" t="n">
-        <v>141.0</v>
+        <v>144.0</v>
       </c>
     </row>
     <row r="19">
@@ -355,67 +355,67 @@
         </is>
       </c>
       <c r="C19" s="1" t="n">
-        <v>131.0</v>
+        <v>133.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Regione Puglia</t>
+          <t>Regione Piemonte</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>80017210727</t>
+          <t>80087670016</t>
         </is>
       </c>
       <c r="C20" s="1" t="n">
-        <v>118.0</v>
+        <v>121.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Regione Basilicata</t>
+          <t>Regione Puglia</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>80002950766</t>
+          <t>80017210727</t>
         </is>
       </c>
       <c r="C21" s="1" t="n">
-        <v>106.0</v>
+        <v>120.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Regione Toscana</t>
+          <t>Regione Basilicata</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>01386030488</t>
+          <t>80002950766</t>
         </is>
       </c>
       <c r="C22" s="1" t="n">
-        <v>102.0</v>
+        <v>106.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Regione Piemonte</t>
+          <t>Regione Toscana</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>80087670016</t>
+          <t>01386030488</t>
         </is>
       </c>
       <c r="C23" s="1" t="n">
-        <v>100.0</v>
+        <v>103.0</v>
       </c>
     </row>
     <row r="24">
@@ -445,7 +445,7 @@
         </is>
       </c>
       <c r="C25" s="1" t="n">
-        <v>77.0</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="26">
@@ -466,162 +466,162 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Intesa Sanpaolo SPA</t>
+          <t>Regione Autonoma della Sardegna</t>
         </is>
       </c>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>00799960158</t>
+          <t>80002870923</t>
         </is>
       </c>
       <c r="C27" s="1" t="n">
-        <v>60.0</v>
+        <v>69.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>NORDCOM</t>
+          <t>Intesa Sanpaolo SPA</t>
         </is>
       </c>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>13384100155</t>
+          <t>00799960158</t>
         </is>
       </c>
       <c r="C28" s="1" t="n">
-        <v>55.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Regione Umbria</t>
+          <t>PMPay s.r.l.</t>
         </is>
       </c>
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>80000130544</t>
+          <t>08747230962</t>
         </is>
       </c>
       <c r="C29" s="1" t="n">
-        <v>51.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Bluenext S.r.l.</t>
+          <t>NORDCOM</t>
         </is>
       </c>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>04228480408</t>
+          <t>13384100155</t>
         </is>
       </c>
       <c r="C30" s="1" t="n">
-        <v>49.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Regione Autonoma della Sardegna</t>
+          <t>Regione Umbria</t>
         </is>
       </c>
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t>80002870923</t>
+          <t>80000130544</t>
         </is>
       </c>
       <c r="C31" s="1" t="n">
-        <v>47.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Italriscossioni Società Italiana di Fiscalità Locale S.r.l.</t>
+          <t>Bluenext S.r.l.</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>06092371001</t>
+          <t>04228480408</t>
         </is>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>CINECA consorzio universitario</t>
+          <t>Italriscossioni Società Italiana di Fiscalità Locale S.r.l.</t>
         </is>
       </c>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>00317740371</t>
+          <t>06092371001</t>
         </is>
       </c>
       <c r="C33" s="1" t="n">
-        <v>42.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Consorzio I.T. Srl</t>
+          <t>CINECA consorzio universitario</t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>01321400192</t>
+          <t>00317740371</t>
         </is>
       </c>
       <c r="C34" s="1" t="n">
-        <v>40.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>UNIMATICA S.P.A</t>
+          <t>Consorzio I.T. Srl</t>
         </is>
       </c>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>02098391200</t>
+          <t>01321400192</t>
         </is>
       </c>
       <c r="C35" s="1" t="n">
-        <v>38.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>PMPay s.r.l.</t>
+          <t>ROMA CAPITALE</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>08747230962</t>
+          <t>02438750586</t>
         </is>
       </c>
       <c r="C36" s="1" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>ROMA CAPITALE</t>
+          <t>UNIMATICA S.P.A</t>
         </is>
       </c>
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>02438750586</t>
+          <t>02098391200</t>
         </is>
       </c>
       <c r="C37" s="1" t="n">
@@ -670,33 +670,33 @@
         </is>
       </c>
       <c r="C40" s="1" t="n">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Regione Liguria</t>
+          <t>Siscom SPA</t>
         </is>
       </c>
       <c r="B41" s="1" t="inlineStr">
         <is>
-          <t>00849050109</t>
+          <t>01778000040</t>
         </is>
       </c>
       <c r="C41" s="1" t="n">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Siscom SPA</t>
+          <t>Regione Liguria</t>
         </is>
       </c>
       <c r="B42" s="1" t="inlineStr">
         <is>
-          <t>01778000040</t>
+          <t>00849050109</t>
         </is>
       </c>
       <c r="C42" s="1" t="n">
@@ -706,27 +706,27 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Nexi SpA</t>
+          <t>Novares Spa</t>
         </is>
       </c>
       <c r="B43" s="1" t="inlineStr">
         <is>
-          <t>13212880150</t>
+          <t>12105121003</t>
         </is>
       </c>
       <c r="C43" s="1" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>ANDREANI TRIBUTI srl</t>
+          <t>Citta' Metropolitana di Roma Capitale</t>
         </is>
       </c>
       <c r="B44" s="1" t="inlineStr">
         <is>
-          <t>01412920439</t>
+          <t>80034390585</t>
         </is>
       </c>
       <c r="C44" s="1" t="n">
@@ -736,12 +736,12 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Regione Lazio</t>
+          <t>Nexi SpA</t>
         </is>
       </c>
       <c r="B45" s="1" t="inlineStr">
         <is>
-          <t>80143490581</t>
+          <t>13212880150</t>
         </is>
       </c>
       <c r="C45" s="1" t="n">
@@ -751,12 +751,12 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Citta' Metropolitana di Roma Capitale</t>
+          <t>Regione Lazio</t>
         </is>
       </c>
       <c r="B46" s="1" t="inlineStr">
         <is>
-          <t>80034390585</t>
+          <t>80143490581</t>
         </is>
       </c>
       <c r="C46" s="1" t="n">
@@ -766,27 +766,27 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Comune di Palermo</t>
+          <t>ANDREANI TRIBUTI srl</t>
         </is>
       </c>
       <c r="B47" s="1" t="inlineStr">
         <is>
-          <t>80016350821</t>
+          <t>01412920439</t>
         </is>
       </c>
       <c r="C47" s="1" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Novares Spa</t>
+          <t>Comune di Palermo</t>
         </is>
       </c>
       <c r="B48" s="1" t="inlineStr">
         <is>
-          <t>12105121003</t>
+          <t>80016350821</t>
         </is>
       </c>
       <c r="C48" s="1" t="n">
@@ -796,46 +796,46 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Servizi Locali SpA</t>
+          <t>Numera Sistemi e Informatica SpA</t>
         </is>
       </c>
       <c r="B49" s="1" t="inlineStr">
         <is>
-          <t>03170580751</t>
+          <t>01265230902</t>
         </is>
       </c>
       <c r="C49" s="1" t="n">
-        <v>14.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Regione Autonoma Valle D'Aosta</t>
+          <t>Servizi Locali SpA</t>
         </is>
       </c>
       <c r="B50" s="1" t="inlineStr">
         <is>
-          <t>80002270074</t>
+          <t>03170580751</t>
         </is>
       </c>
       <c r="C50" s="1" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Numera Sistemi e Informatica SpA</t>
+          <t>Regione Autonoma Valle D'Aosta</t>
         </is>
       </c>
       <c r="B51" s="1" t="inlineStr">
         <is>
-          <t>01265230902</t>
+          <t>80002270074</t>
         </is>
       </c>
       <c r="C51" s="1" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="52">
@@ -931,27 +931,27 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>Linea Comune Spa</t>
+          <t>ARCA Servizi s.r.l</t>
         </is>
       </c>
       <c r="B58" s="1" t="inlineStr">
         <is>
-          <t>05591950489</t>
+          <t>09106071005</t>
         </is>
       </c>
       <c r="C58" s="1" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>ISWEB S.p.A.</t>
+          <t>Linea Comune Spa</t>
         </is>
       </c>
       <c r="B59" s="1" t="inlineStr">
         <is>
-          <t>01722270665</t>
+          <t>05591950489</t>
         </is>
       </c>
       <c r="C59" s="1" t="n">
@@ -976,27 +976,27 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>ICCREA Banca SpA</t>
+          <t>ISWEB S.p.A.</t>
         </is>
       </c>
       <c r="B61" s="1" t="inlineStr">
         <is>
-          <t>04774801007</t>
+          <t>01722270665</t>
         </is>
       </c>
       <c r="C61" s="1" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>ARCA Servizi s.r.l</t>
+          <t>CityPoste Payment Digital S.r.l.</t>
         </is>
       </c>
       <c r="B62" s="1" t="inlineStr">
         <is>
-          <t>09106071005</t>
+          <t>02003750672</t>
         </is>
       </c>
       <c r="C62" s="1" t="n">
@@ -1006,12 +1006,12 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>CityPoste Payment Digital S.r.l.</t>
+          <t>ICCREA Banca SpA</t>
         </is>
       </c>
       <c r="B63" s="1" t="inlineStr">
         <is>
-          <t>02003750672</t>
+          <t>04774801007</t>
         </is>
       </c>
       <c r="C63" s="1" t="n">
@@ -1021,12 +1021,12 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>Ministero dello Sviluppo Economico</t>
+          <t>Agenzia Italiana del Farmaco - AIFA</t>
         </is>
       </c>
       <c r="B64" s="1" t="inlineStr">
         <is>
-          <t>80230390587</t>
+          <t>97345810580</t>
         </is>
       </c>
       <c r="C64" s="1" t="n">
@@ -1036,12 +1036,12 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Softline srl</t>
+          <t>MegASP S.r.l.</t>
         </is>
       </c>
       <c r="B65" s="1" t="inlineStr">
         <is>
-          <t>12299030150</t>
+          <t>09898030151</t>
         </is>
       </c>
       <c r="C65" s="1" t="n">
@@ -1051,12 +1051,12 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>I.C.A. - Imposte Comunali Affini – s.r.l.</t>
+          <t>Ministero dello Sviluppo Economico</t>
         </is>
       </c>
       <c r="B66" s="1" t="inlineStr">
         <is>
-          <t>02478610583</t>
+          <t>80230390587</t>
         </is>
       </c>
       <c r="C66" s="1" t="n">
@@ -1066,12 +1066,12 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>Banco BPM Società per Azioni</t>
+          <t>Softline srl</t>
         </is>
       </c>
       <c r="B67" s="1" t="inlineStr">
         <is>
-          <t>09722490969</t>
+          <t>12299030150</t>
         </is>
       </c>
       <c r="C67" s="1" t="n">
@@ -1081,12 +1081,12 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>ARGO SOFTWARE SRL</t>
+          <t>I.C.A. - Imposte Comunali Affini – s.r.l.</t>
         </is>
       </c>
       <c r="B68" s="1" t="inlineStr">
         <is>
-          <t>00838520880</t>
+          <t>02478610583</t>
         </is>
       </c>
       <c r="C68" s="1" t="n">
@@ -1096,12 +1096,12 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>Engineering Ingegneria Informatica SpA</t>
+          <t>Banco BPM Società per Azioni</t>
         </is>
       </c>
       <c r="B69" s="1" t="inlineStr">
         <is>
-          <t>00967720285</t>
+          <t>09722490969</t>
         </is>
       </c>
       <c r="C69" s="1" t="n">
@@ -1111,12 +1111,12 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>BANCA MONTE DEI PASCHI DI SIENA</t>
+          <t>ARGO SOFTWARE SRL</t>
         </is>
       </c>
       <c r="B70" s="1" t="inlineStr">
         <is>
-          <t>00884060526</t>
+          <t>00838520880</t>
         </is>
       </c>
       <c r="C70" s="1" t="n">
@@ -1126,12 +1126,12 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>San Marco SPA</t>
+          <t>Engineering Ingegneria Informatica SpA</t>
         </is>
       </c>
       <c r="B71" s="1" t="inlineStr">
         <is>
-          <t>04142440728</t>
+          <t>00967720285</t>
         </is>
       </c>
       <c r="C71" s="1" t="n">
@@ -1141,12 +1141,12 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>Agenzia Italiana del Farmaco - AIFA</t>
+          <t>BANCA MONTE DEI PASCHI DI SIENA</t>
         </is>
       </c>
       <c r="B72" s="1" t="inlineStr">
         <is>
-          <t>97345810580</t>
+          <t>00884060526</t>
         </is>
       </c>
       <c r="C72" s="1" t="n">
@@ -1156,12 +1156,12 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>MegASP S.r.l.</t>
+          <t>San Marco SPA</t>
         </is>
       </c>
       <c r="B73" s="1" t="inlineStr">
         <is>
-          <t>09898030151</t>
+          <t>04142440728</t>
         </is>
       </c>
       <c r="C73" s="1" t="n">

--- a/data/pagopa-intermediari.xlsx
+++ b/data/pagopa-intermediari.xlsx
@@ -100,7 +100,7 @@
         </is>
       </c>
       <c r="C2" s="1" t="n">
-        <v>8457.0</v>
+        <v>8515.0</v>
       </c>
     </row>
     <row r="3">
@@ -115,7 +115,7 @@
         </is>
       </c>
       <c r="C3" s="1" t="n">
-        <v>1060.0</v>
+        <v>1061.0</v>
       </c>
     </row>
     <row r="4">
@@ -130,7 +130,7 @@
         </is>
       </c>
       <c r="C4" s="1" t="n">
-        <v>759.0</v>
+        <v>767.0</v>
       </c>
     </row>
     <row r="5">
@@ -145,7 +145,7 @@
         </is>
       </c>
       <c r="C5" s="1" t="n">
-        <v>492.0</v>
+        <v>518.0</v>
       </c>
     </row>
     <row r="6">
@@ -160,7 +160,7 @@
         </is>
       </c>
       <c r="C6" s="1" t="n">
-        <v>442.0</v>
+        <v>458.0</v>
       </c>
     </row>
     <row r="7">
@@ -175,7 +175,7 @@
         </is>
       </c>
       <c r="C7" s="1" t="n">
-        <v>409.0</v>
+        <v>411.0</v>
       </c>
     </row>
     <row r="8">
@@ -205,7 +205,7 @@
         </is>
       </c>
       <c r="C9" s="1" t="n">
-        <v>386.0</v>
+        <v>390.0</v>
       </c>
     </row>
     <row r="10">
@@ -235,7 +235,7 @@
         </is>
       </c>
       <c r="C11" s="1" t="n">
-        <v>331.0</v>
+        <v>332.0</v>
       </c>
     </row>
     <row r="12">
@@ -250,7 +250,7 @@
         </is>
       </c>
       <c r="C12" s="1" t="n">
-        <v>325.0</v>
+        <v>327.0</v>
       </c>
     </row>
     <row r="13">
@@ -265,7 +265,7 @@
         </is>
       </c>
       <c r="C13" s="1" t="n">
-        <v>235.0</v>
+        <v>236.0</v>
       </c>
     </row>
     <row r="14">
@@ -280,7 +280,7 @@
         </is>
       </c>
       <c r="C14" s="1" t="n">
-        <v>181.0</v>
+        <v>183.0</v>
       </c>
     </row>
     <row r="15">
@@ -295,7 +295,7 @@
         </is>
       </c>
       <c r="C15" s="1" t="n">
-        <v>180.0</v>
+        <v>181.0</v>
       </c>
     </row>
     <row r="16">
@@ -310,7 +310,7 @@
         </is>
       </c>
       <c r="C16" s="1" t="n">
-        <v>154.0</v>
+        <v>158.0</v>
       </c>
     </row>
     <row r="17">
@@ -325,7 +325,7 @@
         </is>
       </c>
       <c r="C17" s="1" t="n">
-        <v>148.0</v>
+        <v>149.0</v>
       </c>
     </row>
     <row r="18">
@@ -355,7 +355,7 @@
         </is>
       </c>
       <c r="C19" s="1" t="n">
-        <v>133.0</v>
+        <v>139.0</v>
       </c>
     </row>
     <row r="20">
@@ -370,7 +370,7 @@
         </is>
       </c>
       <c r="C20" s="1" t="n">
-        <v>121.0</v>
+        <v>131.0</v>
       </c>
     </row>
     <row r="21">
@@ -415,7 +415,7 @@
         </is>
       </c>
       <c r="C23" s="1" t="n">
-        <v>103.0</v>
+        <v>104.0</v>
       </c>
     </row>
     <row r="24">
@@ -445,7 +445,7 @@
         </is>
       </c>
       <c r="C25" s="1" t="n">
-        <v>82.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="26">
@@ -460,7 +460,7 @@
         </is>
       </c>
       <c r="C26" s="1" t="n">
-        <v>76.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="27">
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="C27" s="1" t="n">
-        <v>69.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="28">
@@ -586,91 +586,91 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Consorzio I.T. Srl</t>
+          <t>Regione Autonoma Valle D'Aosta</t>
         </is>
       </c>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>01321400192</t>
+          <t>80002270074</t>
         </is>
       </c>
       <c r="C35" s="1" t="n">
-        <v>40.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>ROMA CAPITALE</t>
+          <t>Consorzio I.T. Srl</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>02438750586</t>
+          <t>01321400192</t>
         </is>
       </c>
       <c r="C36" s="1" t="n">
-        <v>39.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>UNIMATICA S.P.A</t>
+          <t>ROMA CAPITALE</t>
         </is>
       </c>
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>02098391200</t>
+          <t>02438750586</t>
         </is>
       </c>
       <c r="C37" s="1" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>SI.net Servizi Informatici S.r.L.</t>
+          <t>UNIMATICA S.P.A</t>
         </is>
       </c>
       <c r="B38" s="1" t="inlineStr">
         <is>
-          <t>02743730125</t>
+          <t>02098391200</t>
         </is>
       </c>
       <c r="C38" s="1" t="n">
-        <v>35.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Unicredit, Societa' per Azioni</t>
+          <t>SI.net Servizi Informatici S.r.L.</t>
         </is>
       </c>
       <c r="B39" s="1" t="inlineStr">
         <is>
-          <t>00348170101</t>
+          <t>02743730125</t>
         </is>
       </c>
       <c r="C39" s="1" t="n">
-        <v>33.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>DCS SOFTWARE E SERVIZI S.R.L.</t>
+          <t>Unicredit, Societa' per Azioni</t>
         </is>
       </c>
       <c r="B40" s="1" t="inlineStr">
         <is>
-          <t>08063140019</t>
+          <t>00348170101</t>
         </is>
       </c>
       <c r="C40" s="1" t="n">
-        <v>27.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="41">
@@ -685,63 +685,63 @@
         </is>
       </c>
       <c r="C41" s="1" t="n">
-        <v>26.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Regione Liguria</t>
+          <t>DCS SOFTWARE E SERVIZI S.R.L.</t>
         </is>
       </c>
       <c r="B42" s="1" t="inlineStr">
         <is>
-          <t>00849050109</t>
+          <t>08063140019</t>
         </is>
       </c>
       <c r="C42" s="1" t="n">
-        <v>24.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Novares Spa</t>
+          <t>Regione Liguria</t>
         </is>
       </c>
       <c r="B43" s="1" t="inlineStr">
         <is>
-          <t>12105121003</t>
+          <t>00849050109</t>
         </is>
       </c>
       <c r="C43" s="1" t="n">
-        <v>19.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Citta' Metropolitana di Roma Capitale</t>
+          <t>Novares Spa</t>
         </is>
       </c>
       <c r="B44" s="1" t="inlineStr">
         <is>
-          <t>80034390585</t>
+          <t>12105121003</t>
         </is>
       </c>
       <c r="C44" s="1" t="n">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Nexi SpA</t>
+          <t>Citta' Metropolitana di Roma Capitale</t>
         </is>
       </c>
       <c r="B45" s="1" t="inlineStr">
         <is>
-          <t>13212880150</t>
+          <t>80034390585</t>
         </is>
       </c>
       <c r="C45" s="1" t="n">
@@ -781,16 +781,16 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Comune di Palermo</t>
+          <t>Nexi SpA</t>
         </is>
       </c>
       <c r="B48" s="1" t="inlineStr">
         <is>
-          <t>80016350821</t>
+          <t>13212880150</t>
         </is>
       </c>
       <c r="C48" s="1" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="49">
@@ -811,57 +811,57 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Servizi Locali SpA</t>
+          <t>Comune di Palermo</t>
         </is>
       </c>
       <c r="B50" s="1" t="inlineStr">
         <is>
-          <t>03170580751</t>
+          <t>80016350821</t>
         </is>
       </c>
       <c r="C50" s="1" t="n">
-        <v>14.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Regione Autonoma Valle D'Aosta</t>
+          <t>Servizi Locali SpA</t>
         </is>
       </c>
       <c r="B51" s="1" t="inlineStr">
         <is>
-          <t>80002270074</t>
+          <t>03170580751</t>
         </is>
       </c>
       <c r="C51" s="1" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Si.Form Consulting srl</t>
+          <t>Crédit Agricole Group Solutions Società Consortile per azioni</t>
         </is>
       </c>
       <c r="B52" s="1" t="inlineStr">
         <is>
-          <t>03943960827</t>
+          <t>02771790348</t>
         </is>
       </c>
       <c r="C52" s="1" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Crédit Agricole Group Solutions Società Consortile per azioni</t>
+          <t>Si.Form Consulting srl</t>
         </is>
       </c>
       <c r="B53" s="1" t="inlineStr">
         <is>
-          <t>02771790348</t>
+          <t>03943960827</t>
         </is>
       </c>
       <c r="C53" s="1" t="n">
@@ -910,48 +910,48 @@
         </is>
       </c>
       <c r="C56" s="1" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Comune di Catania</t>
+          <t>ARCA Servizi s.r.l</t>
         </is>
       </c>
       <c r="B57" s="1" t="inlineStr">
         <is>
-          <t>00137020871</t>
+          <t>09106071005</t>
         </is>
       </c>
       <c r="C57" s="1" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>ARCA Servizi s.r.l</t>
+          <t>Comune di Catania</t>
         </is>
       </c>
       <c r="B58" s="1" t="inlineStr">
         <is>
-          <t>09106071005</t>
+          <t>00137020871</t>
         </is>
       </c>
       <c r="C58" s="1" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>Linea Comune Spa</t>
+          <t>e-SED Società Cooperativa</t>
         </is>
       </c>
       <c r="B59" s="1" t="inlineStr">
         <is>
-          <t>05591950489</t>
+          <t>02695640421</t>
         </is>
       </c>
       <c r="C59" s="1" t="n">
@@ -961,12 +961,12 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>e-SED Società Cooperativa</t>
+          <t>ISWEB S.p.A.</t>
         </is>
       </c>
       <c r="B60" s="1" t="inlineStr">
         <is>
-          <t>02695640421</t>
+          <t>01722270665</t>
         </is>
       </c>
       <c r="C60" s="1" t="n">
@@ -976,12 +976,12 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>ISWEB S.p.A.</t>
+          <t>Linea Comune Spa</t>
         </is>
       </c>
       <c r="B61" s="1" t="inlineStr">
         <is>
-          <t>01722270665</t>
+          <t>05591950489</t>
         </is>
       </c>
       <c r="C61" s="1" t="n">
@@ -991,12 +991,12 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>CityPoste Payment Digital S.r.l.</t>
+          <t>Phoenix IT Solutions S.r.L</t>
         </is>
       </c>
       <c r="B62" s="1" t="inlineStr">
         <is>
-          <t>02003750672</t>
+          <t>07623321218</t>
         </is>
       </c>
       <c r="C62" s="1" t="n">
@@ -1006,12 +1006,12 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>ICCREA Banca SpA</t>
+          <t>CityPoste Payment Digital S.r.l.</t>
         </is>
       </c>
       <c r="B63" s="1" t="inlineStr">
         <is>
-          <t>04774801007</t>
+          <t>02003750672</t>
         </is>
       </c>
       <c r="C63" s="1" t="n">
@@ -1021,27 +1021,27 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>Agenzia Italiana del Farmaco - AIFA</t>
+          <t>ICCREA Banca SpA</t>
         </is>
       </c>
       <c r="B64" s="1" t="inlineStr">
         <is>
-          <t>97345810580</t>
+          <t>04774801007</t>
         </is>
       </c>
       <c r="C64" s="1" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>MegASP S.r.l.</t>
+          <t>Ministero dello Sviluppo Economico</t>
         </is>
       </c>
       <c r="B65" s="1" t="inlineStr">
         <is>
-          <t>09898030151</t>
+          <t>80230390587</t>
         </is>
       </c>
       <c r="C65" s="1" t="n">
@@ -1051,12 +1051,12 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>Ministero dello Sviluppo Economico</t>
+          <t>BANCA MONTE DEI PASCHI DI SIENA</t>
         </is>
       </c>
       <c r="B66" s="1" t="inlineStr">
         <is>
-          <t>80230390587</t>
+          <t>00884060526</t>
         </is>
       </c>
       <c r="C66" s="1" t="n">
@@ -1066,12 +1066,12 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>Softline srl</t>
+          <t>Engineering Ingegneria Informatica SpA</t>
         </is>
       </c>
       <c r="B67" s="1" t="inlineStr">
         <is>
-          <t>12299030150</t>
+          <t>00967720285</t>
         </is>
       </c>
       <c r="C67" s="1" t="n">
@@ -1081,12 +1081,12 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>I.C.A. - Imposte Comunali Affini – s.r.l.</t>
+          <t>Argentea S.r.l.</t>
         </is>
       </c>
       <c r="B68" s="1" t="inlineStr">
         <is>
-          <t>02478610583</t>
+          <t>02260390220</t>
         </is>
       </c>
       <c r="C68" s="1" t="n">
@@ -1096,12 +1096,12 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>Banco BPM Società per Azioni</t>
+          <t>Società Almaviva S.p.A.</t>
         </is>
       </c>
       <c r="B69" s="1" t="inlineStr">
         <is>
-          <t>09722490969</t>
+          <t>08450891000</t>
         </is>
       </c>
       <c r="C69" s="1" t="n">
@@ -1111,12 +1111,12 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>ARGO SOFTWARE SRL</t>
+          <t>I.C.A. - Imposte Comunali Affini – s.r.l.</t>
         </is>
       </c>
       <c r="B70" s="1" t="inlineStr">
         <is>
-          <t>00838520880</t>
+          <t>02478610583</t>
         </is>
       </c>
       <c r="C70" s="1" t="n">
@@ -1126,12 +1126,12 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Engineering Ingegneria Informatica SpA</t>
+          <t>Banco BPM Società per Azioni</t>
         </is>
       </c>
       <c r="B71" s="1" t="inlineStr">
         <is>
-          <t>00967720285</t>
+          <t>09722490969</t>
         </is>
       </c>
       <c r="C71" s="1" t="n">
@@ -1141,12 +1141,12 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>BANCA MONTE DEI PASCHI DI SIENA</t>
+          <t>ARGO SOFTWARE SRL</t>
         </is>
       </c>
       <c r="B72" s="1" t="inlineStr">
         <is>
-          <t>00884060526</t>
+          <t>00838520880</t>
         </is>
       </c>
       <c r="C72" s="1" t="n">
@@ -1156,12 +1156,12 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>San Marco SPA</t>
+          <t>Softline srl</t>
         </is>
       </c>
       <c r="B73" s="1" t="inlineStr">
         <is>
-          <t>04142440728</t>
+          <t>12299030150</t>
         </is>
       </c>
       <c r="C73" s="1" t="n">
@@ -1171,15 +1171,60 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>Società Almaviva S.p.A.</t>
+          <t>San Marco SPA</t>
         </is>
       </c>
       <c r="B74" s="1" t="inlineStr">
         <is>
-          <t>08450891000</t>
+          <t>04142440728</t>
         </is>
       </c>
       <c r="C74" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>Noviservice srl</t>
+        </is>
+      </c>
+      <c r="B75" s="1" t="inlineStr">
+        <is>
+          <t>02789990922</t>
+        </is>
+      </c>
+      <c r="C75" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>Agenzia Italiana del Farmaco - AIFA</t>
+        </is>
+      </c>
+      <c r="B76" s="1" t="inlineStr">
+        <is>
+          <t>97345810580</t>
+        </is>
+      </c>
+      <c r="C76" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>MegASP S.r.l.</t>
+        </is>
+      </c>
+      <c r="B77" s="1" t="inlineStr">
+        <is>
+          <t>09898030151</t>
+        </is>
+      </c>
+      <c r="C77" s="1" t="n">
         <v>1.0</v>
       </c>
     </row>

--- a/data/pagopa-intermediari.xlsx
+++ b/data/pagopa-intermediari.xlsx
@@ -115,7 +115,7 @@
         </is>
       </c>
       <c r="C3" s="1" t="n">
-        <v>1061.0</v>
+        <v>1062.0</v>
       </c>
     </row>
     <row r="4">
@@ -130,7 +130,7 @@
         </is>
       </c>
       <c r="C4" s="1" t="n">
-        <v>767.0</v>
+        <v>770.0</v>
       </c>
     </row>
     <row r="5">
@@ -145,7 +145,7 @@
         </is>
       </c>
       <c r="C5" s="1" t="n">
-        <v>518.0</v>
+        <v>524.0</v>
       </c>
     </row>
     <row r="6">
@@ -160,7 +160,7 @@
         </is>
       </c>
       <c r="C6" s="1" t="n">
-        <v>458.0</v>
+        <v>462.0</v>
       </c>
     </row>
     <row r="7">
@@ -205,7 +205,7 @@
         </is>
       </c>
       <c r="C9" s="1" t="n">
-        <v>390.0</v>
+        <v>393.0</v>
       </c>
     </row>
     <row r="10">
@@ -250,7 +250,7 @@
         </is>
       </c>
       <c r="C12" s="1" t="n">
-        <v>327.0</v>
+        <v>329.0</v>
       </c>
     </row>
     <row r="13">
@@ -265,7 +265,7 @@
         </is>
       </c>
       <c r="C13" s="1" t="n">
-        <v>236.0</v>
+        <v>239.0</v>
       </c>
     </row>
     <row r="14">
@@ -280,7 +280,7 @@
         </is>
       </c>
       <c r="C14" s="1" t="n">
-        <v>183.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="15">
@@ -310,7 +310,7 @@
         </is>
       </c>
       <c r="C16" s="1" t="n">
-        <v>158.0</v>
+        <v>159.0</v>
       </c>
     </row>
     <row r="17">
@@ -340,7 +340,7 @@
         </is>
       </c>
       <c r="C18" s="1" t="n">
-        <v>144.0</v>
+        <v>146.0</v>
       </c>
     </row>
     <row r="19">
@@ -355,7 +355,7 @@
         </is>
       </c>
       <c r="C19" s="1" t="n">
-        <v>139.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="20">
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="C29" s="1" t="n">
-        <v>56.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="30">
@@ -556,76 +556,76 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Italriscossioni Società Italiana di Fiscalità Locale S.r.l.</t>
+          <t>ROMA CAPITALE</t>
         </is>
       </c>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>06092371001</t>
+          <t>02438750586</t>
         </is>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>CINECA consorzio universitario</t>
+          <t>Italriscossioni Società Italiana di Fiscalità Locale S.r.l.</t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>00317740371</t>
+          <t>06092371001</t>
         </is>
       </c>
       <c r="C34" s="1" t="n">
-        <v>42.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Regione Autonoma Valle D'Aosta</t>
+          <t>CINECA consorzio universitario</t>
         </is>
       </c>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>80002270074</t>
+          <t>00317740371</t>
         </is>
       </c>
       <c r="C35" s="1" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Consorzio I.T. Srl</t>
+          <t>Regione Autonoma Valle D'Aosta</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>01321400192</t>
+          <t>80002270074</t>
         </is>
       </c>
       <c r="C36" s="1" t="n">
-        <v>40.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>ROMA CAPITALE</t>
+          <t>Consorzio I.T. Srl</t>
         </is>
       </c>
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>02438750586</t>
+          <t>01321400192</t>
         </is>
       </c>
       <c r="C37" s="1" t="n">
-        <v>39.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="38">
@@ -646,46 +646,46 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>SI.net Servizi Informatici S.r.L.</t>
+          <t>Siscom SPA</t>
         </is>
       </c>
       <c r="B39" s="1" t="inlineStr">
         <is>
-          <t>02743730125</t>
+          <t>01778000040</t>
         </is>
       </c>
       <c r="C39" s="1" t="n">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Unicredit, Societa' per Azioni</t>
+          <t>SI.net Servizi Informatici S.r.L.</t>
         </is>
       </c>
       <c r="B40" s="1" t="inlineStr">
         <is>
-          <t>00348170101</t>
+          <t>02743730125</t>
         </is>
       </c>
       <c r="C40" s="1" t="n">
-        <v>33.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Siscom SPA</t>
+          <t>Unicredit, Societa' per Azioni</t>
         </is>
       </c>
       <c r="B41" s="1" t="inlineStr">
         <is>
-          <t>01778000040</t>
+          <t>00348170101</t>
         </is>
       </c>
       <c r="C41" s="1" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="42">
@@ -730,18 +730,18 @@
         </is>
       </c>
       <c r="C44" s="1" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Citta' Metropolitana di Roma Capitale</t>
+          <t>ANDREANI TRIBUTI srl</t>
         </is>
       </c>
       <c r="B45" s="1" t="inlineStr">
         <is>
-          <t>80034390585</t>
+          <t>01412920439</t>
         </is>
       </c>
       <c r="C45" s="1" t="n">
@@ -751,12 +751,12 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Regione Lazio</t>
+          <t>Nexi SpA</t>
         </is>
       </c>
       <c r="B46" s="1" t="inlineStr">
         <is>
-          <t>80143490581</t>
+          <t>13212880150</t>
         </is>
       </c>
       <c r="C46" s="1" t="n">
@@ -766,12 +766,12 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>ANDREANI TRIBUTI srl</t>
+          <t>Citta' Metropolitana di Roma Capitale</t>
         </is>
       </c>
       <c r="B47" s="1" t="inlineStr">
         <is>
-          <t>01412920439</t>
+          <t>80034390585</t>
         </is>
       </c>
       <c r="C47" s="1" t="n">
@@ -781,12 +781,12 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Nexi SpA</t>
+          <t>Numera Sistemi e Informatica SpA</t>
         </is>
       </c>
       <c r="B48" s="1" t="inlineStr">
         <is>
-          <t>13212880150</t>
+          <t>01265230902</t>
         </is>
       </c>
       <c r="C48" s="1" t="n">
@@ -796,16 +796,16 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Numera Sistemi e Informatica SpA</t>
+          <t>Regione Lazio</t>
         </is>
       </c>
       <c r="B49" s="1" t="inlineStr">
         <is>
-          <t>01265230902</t>
+          <t>80143490581</t>
         </is>
       </c>
       <c r="C49" s="1" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="50">
@@ -946,12 +946,12 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>e-SED Società Cooperativa</t>
+          <t>Linea Comune Spa</t>
         </is>
       </c>
       <c r="B59" s="1" t="inlineStr">
         <is>
-          <t>02695640421</t>
+          <t>05591950489</t>
         </is>
       </c>
       <c r="C59" s="1" t="n">
@@ -976,12 +976,12 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Linea Comune Spa</t>
+          <t>e-SED Società Cooperativa</t>
         </is>
       </c>
       <c r="B61" s="1" t="inlineStr">
         <is>
-          <t>05591950489</t>
+          <t>02695640421</t>
         </is>
       </c>
       <c r="C61" s="1" t="n">
@@ -1006,12 +1006,12 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>CityPoste Payment Digital S.r.l.</t>
+          <t>ICCREA Banca SpA</t>
         </is>
       </c>
       <c r="B63" s="1" t="inlineStr">
         <is>
-          <t>02003750672</t>
+          <t>04774801007</t>
         </is>
       </c>
       <c r="C63" s="1" t="n">
@@ -1021,12 +1021,12 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>ICCREA Banca SpA</t>
+          <t>CityPoste Payment Digital S.r.l.</t>
         </is>
       </c>
       <c r="B64" s="1" t="inlineStr">
         <is>
-          <t>04774801007</t>
+          <t>02003750672</t>
         </is>
       </c>
       <c r="C64" s="1" t="n">
@@ -1036,12 +1036,12 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Ministero dello Sviluppo Economico</t>
+          <t>Agenzia Italiana del Farmaco - AIFA</t>
         </is>
       </c>
       <c r="B65" s="1" t="inlineStr">
         <is>
-          <t>80230390587</t>
+          <t>97345810580</t>
         </is>
       </c>
       <c r="C65" s="1" t="n">
@@ -1051,12 +1051,12 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>BANCA MONTE DEI PASCHI DI SIENA</t>
+          <t>I.C.A. - Imposte Comunali Affini – s.r.l.</t>
         </is>
       </c>
       <c r="B66" s="1" t="inlineStr">
         <is>
-          <t>00884060526</t>
+          <t>02478610583</t>
         </is>
       </c>
       <c r="C66" s="1" t="n">
@@ -1066,12 +1066,12 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>Engineering Ingegneria Informatica SpA</t>
+          <t>MegASP S.r.l.</t>
         </is>
       </c>
       <c r="B67" s="1" t="inlineStr">
         <is>
-          <t>00967720285</t>
+          <t>09898030151</t>
         </is>
       </c>
       <c r="C67" s="1" t="n">
@@ -1096,12 +1096,12 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>Società Almaviva S.p.A.</t>
+          <t>Ministero dello Sviluppo Economico</t>
         </is>
       </c>
       <c r="B69" s="1" t="inlineStr">
         <is>
-          <t>08450891000</t>
+          <t>80230390587</t>
         </is>
       </c>
       <c r="C69" s="1" t="n">
@@ -1111,12 +1111,12 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>I.C.A. - Imposte Comunali Affini – s.r.l.</t>
+          <t>BANCA MONTE DEI PASCHI DI SIENA</t>
         </is>
       </c>
       <c r="B70" s="1" t="inlineStr">
         <is>
-          <t>02478610583</t>
+          <t>00884060526</t>
         </is>
       </c>
       <c r="C70" s="1" t="n">
@@ -1126,12 +1126,12 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Banco BPM Società per Azioni</t>
+          <t>Softline srl</t>
         </is>
       </c>
       <c r="B71" s="1" t="inlineStr">
         <is>
-          <t>09722490969</t>
+          <t>12299030150</t>
         </is>
       </c>
       <c r="C71" s="1" t="n">
@@ -1141,12 +1141,12 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>ARGO SOFTWARE SRL</t>
+          <t>San Marco SPA</t>
         </is>
       </c>
       <c r="B72" s="1" t="inlineStr">
         <is>
-          <t>00838520880</t>
+          <t>04142440728</t>
         </is>
       </c>
       <c r="C72" s="1" t="n">
@@ -1156,12 +1156,12 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>Softline srl</t>
+          <t>Banco BPM Società per Azioni</t>
         </is>
       </c>
       <c r="B73" s="1" t="inlineStr">
         <is>
-          <t>12299030150</t>
+          <t>09722490969</t>
         </is>
       </c>
       <c r="C73" s="1" t="n">
@@ -1171,12 +1171,12 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>San Marco SPA</t>
+          <t>ARGO SOFTWARE SRL</t>
         </is>
       </c>
       <c r="B74" s="1" t="inlineStr">
         <is>
-          <t>04142440728</t>
+          <t>00838520880</t>
         </is>
       </c>
       <c r="C74" s="1" t="n">
@@ -1186,12 +1186,12 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>Noviservice srl</t>
+          <t>Engineering Ingegneria Informatica SpA</t>
         </is>
       </c>
       <c r="B75" s="1" t="inlineStr">
         <is>
-          <t>02789990922</t>
+          <t>00967720285</t>
         </is>
       </c>
       <c r="C75" s="1" t="n">
@@ -1201,12 +1201,12 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>Agenzia Italiana del Farmaco - AIFA</t>
+          <t>Noviservice srl</t>
         </is>
       </c>
       <c r="B76" s="1" t="inlineStr">
         <is>
-          <t>97345810580</t>
+          <t>02789990922</t>
         </is>
       </c>
       <c r="C76" s="1" t="n">
@@ -1216,12 +1216,12 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>MegASP S.r.l.</t>
+          <t>Società Almaviva S.p.A.</t>
         </is>
       </c>
       <c r="B77" s="1" t="inlineStr">
         <is>
-          <t>09898030151</t>
+          <t>08450891000</t>
         </is>
       </c>
       <c r="C77" s="1" t="n">

--- a/data/pagopa-intermediari.xlsx
+++ b/data/pagopa-intermediari.xlsx
@@ -100,7 +100,7 @@
         </is>
       </c>
       <c r="C2" s="1" t="n">
-        <v>8515.0</v>
+        <v>8552.0</v>
       </c>
     </row>
     <row r="3">
@@ -115,7 +115,7 @@
         </is>
       </c>
       <c r="C3" s="1" t="n">
-        <v>1062.0</v>
+        <v>1069.0</v>
       </c>
     </row>
     <row r="4">
@@ -130,7 +130,7 @@
         </is>
       </c>
       <c r="C4" s="1" t="n">
-        <v>770.0</v>
+        <v>779.0</v>
       </c>
     </row>
     <row r="5">
@@ -145,7 +145,7 @@
         </is>
       </c>
       <c r="C5" s="1" t="n">
-        <v>524.0</v>
+        <v>543.0</v>
       </c>
     </row>
     <row r="6">
@@ -160,7 +160,7 @@
         </is>
       </c>
       <c r="C6" s="1" t="n">
-        <v>462.0</v>
+        <v>471.0</v>
       </c>
     </row>
     <row r="7">
@@ -175,37 +175,37 @@
         </is>
       </c>
       <c r="C7" s="1" t="n">
-        <v>411.0</v>
+        <v>418.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>CREDEMTEL SpA</t>
+          <t>Maggioli SPA</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>01378570350</t>
+          <t>06188330150</t>
         </is>
       </c>
       <c r="C8" s="1" t="n">
-        <v>403.0</v>
+        <v>405.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Maggioli SPA</t>
+          <t>CREDEMTEL SpA</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>06188330150</t>
+          <t>01378570350</t>
         </is>
       </c>
       <c r="C9" s="1" t="n">
-        <v>393.0</v>
+        <v>405.0</v>
       </c>
     </row>
     <row r="10">
@@ -226,31 +226,31 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Provincia Autonoma di Trento</t>
+          <t>Banca Popolare di Sondrio, Società Cooperativa per Azioni</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>00337460224</t>
+          <t>00053810149</t>
         </is>
       </c>
       <c r="C11" s="1" t="n">
-        <v>332.0</v>
+        <v>339.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Banca Popolare di Sondrio, Società Cooperativa per Azioni</t>
+          <t>Provincia Autonoma di Trento</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>00053810149</t>
+          <t>00337460224</t>
         </is>
       </c>
       <c r="C12" s="1" t="n">
-        <v>329.0</v>
+        <v>334.0</v>
       </c>
     </row>
     <row r="13">
@@ -265,7 +265,7 @@
         </is>
       </c>
       <c r="C13" s="1" t="n">
-        <v>239.0</v>
+        <v>242.0</v>
       </c>
     </row>
     <row r="14">
@@ -280,7 +280,7 @@
         </is>
       </c>
       <c r="C14" s="1" t="n">
-        <v>185.0</v>
+        <v>188.0</v>
       </c>
     </row>
     <row r="15">
@@ -301,301 +301,301 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>P.A. Digitale spa</t>
+          <t>APKAPPA S.R.L.</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>06628860964</t>
+          <t>08543640158</t>
         </is>
       </c>
       <c r="C16" s="1" t="n">
-        <v>159.0</v>
+        <v>175.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>APKAPPA S.R.L.</t>
+          <t>P.A. Digitale spa</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>08543640158</t>
+          <t>06628860964</t>
         </is>
       </c>
       <c r="C17" s="1" t="n">
-        <v>149.0</v>
+        <v>161.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Regione Marche</t>
+          <t>Regione Piemonte</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>80008630420</t>
+          <t>80087670016</t>
         </is>
       </c>
       <c r="C18" s="1" t="n">
-        <v>146.0</v>
+        <v>160.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>ADVANCED SYSTEMS srl</t>
+          <t>Regione Marche</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>03383350638</t>
+          <t>80008630420</t>
         </is>
       </c>
       <c r="C19" s="1" t="n">
-        <v>140.0</v>
+        <v>157.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Regione Piemonte</t>
+          <t>Advanced Systems S.p.A.</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>80087670016</t>
+          <t>03383350638</t>
         </is>
       </c>
       <c r="C20" s="1" t="n">
-        <v>131.0</v>
+        <v>149.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Regione Puglia</t>
+          <t>Regione Autonoma della Sardegna</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>80017210727</t>
+          <t>80002870923</t>
         </is>
       </c>
       <c r="C21" s="1" t="n">
-        <v>120.0</v>
+        <v>129.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Regione Basilicata</t>
+          <t>Regione Puglia</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>80002950766</t>
+          <t>80017210727</t>
         </is>
       </c>
       <c r="C22" s="1" t="n">
-        <v>106.0</v>
+        <v>122.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Regione Toscana</t>
+          <t>Regione Basilicata</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>01386030488</t>
+          <t>80002950766</t>
         </is>
       </c>
       <c r="C23" s="1" t="n">
-        <v>104.0</v>
+        <v>106.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>ANCITEL</t>
+          <t>Regione Toscana</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>07196850585</t>
+          <t>01386030488</t>
         </is>
       </c>
       <c r="C24" s="1" t="n">
-        <v>90.0</v>
+        <v>104.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Next Step Solution</t>
+          <t>ANCITEL</t>
         </is>
       </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>02554480349</t>
+          <t>07196850585</t>
         </is>
       </c>
       <c r="C25" s="1" t="n">
-        <v>86.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Regione Autonoma Friuli-Venezia Giulia</t>
+          <t>Next Step Solution</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>80014930327</t>
+          <t>02554480349</t>
         </is>
       </c>
       <c r="C26" s="1" t="n">
-        <v>79.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Regione Autonoma della Sardegna</t>
+          <t>Regione Autonoma Friuli-Venezia Giulia</t>
         </is>
       </c>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>80002870923</t>
+          <t>80014930327</t>
         </is>
       </c>
       <c r="C27" s="1" t="n">
-        <v>73.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Intesa Sanpaolo SPA</t>
+          <t>PMPay s.r.l.</t>
         </is>
       </c>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>00799960158</t>
+          <t>08747230962</t>
         </is>
       </c>
       <c r="C28" s="1" t="n">
-        <v>61.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>PMPay s.r.l.</t>
+          <t>Intesa Sanpaolo SPA</t>
         </is>
       </c>
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>08747230962</t>
+          <t>00799960158</t>
         </is>
       </c>
       <c r="C29" s="1" t="n">
-        <v>57.0</v>
+        <v>64.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>NORDCOM</t>
+          <t>Siscom SPA</t>
         </is>
       </c>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>13384100155</t>
+          <t>01778000040</t>
         </is>
       </c>
       <c r="C30" s="1" t="n">
-        <v>55.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Regione Umbria</t>
+          <t>ROMA CAPITALE</t>
         </is>
       </c>
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t>80000130544</t>
+          <t>02438750586</t>
         </is>
       </c>
       <c r="C31" s="1" t="n">
-        <v>52.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Bluenext S.r.l.</t>
+          <t>NORDCOM</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>04228480408</t>
+          <t>13384100155</t>
         </is>
       </c>
       <c r="C32" s="1" t="n">
-        <v>50.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>ROMA CAPITALE</t>
+          <t>Regione Umbria</t>
         </is>
       </c>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>02438750586</t>
+          <t>80000130544</t>
         </is>
       </c>
       <c r="C33" s="1" t="n">
-        <v>48.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Italriscossioni Società Italiana di Fiscalità Locale S.r.l.</t>
+          <t>Bluenext S.r.l.</t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>06092371001</t>
+          <t>04228480408</t>
         </is>
       </c>
       <c r="C34" s="1" t="n">
-        <v>47.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>CINECA consorzio universitario</t>
+          <t>Italriscossioni Società Italiana di Fiscalità Locale S.r.l.</t>
         </is>
       </c>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>00317740371</t>
+          <t>06092371001</t>
         </is>
       </c>
       <c r="C35" s="1" t="n">
-        <v>43.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="36">
@@ -610,52 +610,52 @@
         </is>
       </c>
       <c r="C36" s="1" t="n">
-        <v>42.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Consorzio I.T. Srl</t>
+          <t>CINECA consorzio universitario</t>
         </is>
       </c>
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>01321400192</t>
+          <t>00317740371</t>
         </is>
       </c>
       <c r="C37" s="1" t="n">
-        <v>40.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>UNIMATICA S.P.A</t>
+          <t>Consorzio I.T. Srl</t>
         </is>
       </c>
       <c r="B38" s="1" t="inlineStr">
         <is>
-          <t>02098391200</t>
+          <t>01321400192</t>
         </is>
       </c>
       <c r="C38" s="1" t="n">
-        <v>38.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Siscom SPA</t>
+          <t>UNIMATICA S.P.A</t>
         </is>
       </c>
       <c r="B39" s="1" t="inlineStr">
         <is>
-          <t>01778000040</t>
+          <t>02098391200</t>
         </is>
       </c>
       <c r="C39" s="1" t="n">
-        <v>37.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="40">
@@ -715,7 +715,7 @@
         </is>
       </c>
       <c r="C43" s="1" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="44">
@@ -730,22 +730,22 @@
         </is>
       </c>
       <c r="C44" s="1" t="n">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>ANDREANI TRIBUTI srl</t>
+          <t>Numera Sistemi e Informatica SpA</t>
         </is>
       </c>
       <c r="B45" s="1" t="inlineStr">
         <is>
-          <t>01412920439</t>
+          <t>01265230902</t>
         </is>
       </c>
       <c r="C45" s="1" t="n">
-        <v>18.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="46">
@@ -781,12 +781,12 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Numera Sistemi e Informatica SpA</t>
+          <t>Regione Lazio</t>
         </is>
       </c>
       <c r="B48" s="1" t="inlineStr">
         <is>
-          <t>01265230902</t>
+          <t>80143490581</t>
         </is>
       </c>
       <c r="C48" s="1" t="n">
@@ -796,12 +796,12 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Regione Lazio</t>
+          <t>ANDREANI TRIBUTI srl</t>
         </is>
       </c>
       <c r="B49" s="1" t="inlineStr">
         <is>
-          <t>80143490581</t>
+          <t>01412920439</t>
         </is>
       </c>
       <c r="C49" s="1" t="n">
@@ -835,37 +835,37 @@
         </is>
       </c>
       <c r="C51" s="1" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Crédit Agricole Group Solutions Società Consortile per azioni</t>
+          <t>Si.Form Consulting srl</t>
         </is>
       </c>
       <c r="B52" s="1" t="inlineStr">
         <is>
-          <t>02771790348</t>
+          <t>03943960827</t>
         </is>
       </c>
       <c r="C52" s="1" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Si.Form Consulting srl</t>
+          <t>Crédit Agricole Group Solutions Società Consortile per azioni</t>
         </is>
       </c>
       <c r="B53" s="1" t="inlineStr">
         <is>
-          <t>03943960827</t>
+          <t>02771790348</t>
         </is>
       </c>
       <c r="C53" s="1" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="54">
@@ -940,7 +940,7 @@
         </is>
       </c>
       <c r="C58" s="1" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="59">
@@ -961,12 +961,12 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>ISWEB S.p.A.</t>
+          <t>Phoenix IT Solutions S.r.L</t>
         </is>
       </c>
       <c r="B60" s="1" t="inlineStr">
         <is>
-          <t>01722270665</t>
+          <t>07623321218</t>
         </is>
       </c>
       <c r="C60" s="1" t="n">
@@ -991,72 +991,72 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>Phoenix IT Solutions S.r.L</t>
+          <t>CityPoste Payment Digital S.r.l.</t>
         </is>
       </c>
       <c r="B62" s="1" t="inlineStr">
         <is>
-          <t>07623321218</t>
+          <t>02003750672</t>
         </is>
       </c>
       <c r="C62" s="1" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>ICCREA Banca SpA</t>
+          <t>Argentea S.r.l.</t>
         </is>
       </c>
       <c r="B63" s="1" t="inlineStr">
         <is>
-          <t>04774801007</t>
+          <t>02260390220</t>
         </is>
       </c>
       <c r="C63" s="1" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>CityPoste Payment Digital S.r.l.</t>
+          <t>ISWEB S.p.A.</t>
         </is>
       </c>
       <c r="B64" s="1" t="inlineStr">
         <is>
-          <t>02003750672</t>
+          <t>01722270665</t>
         </is>
       </c>
       <c r="C64" s="1" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Agenzia Italiana del Farmaco - AIFA</t>
+          <t>ICCREA Banca SpA</t>
         </is>
       </c>
       <c r="B65" s="1" t="inlineStr">
         <is>
-          <t>97345810580</t>
+          <t>04774801007</t>
         </is>
       </c>
       <c r="C65" s="1" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>I.C.A. - Imposte Comunali Affini – s.r.l.</t>
+          <t>Ministero dello Sviluppo Economico</t>
         </is>
       </c>
       <c r="B66" s="1" t="inlineStr">
         <is>
-          <t>02478610583</t>
+          <t>80230390587</t>
         </is>
       </c>
       <c r="C66" s="1" t="n">
@@ -1066,12 +1066,12 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>MegASP S.r.l.</t>
+          <t>BANCA MONTE DEI PASCHI DI SIENA</t>
         </is>
       </c>
       <c r="B67" s="1" t="inlineStr">
         <is>
-          <t>09898030151</t>
+          <t>00884060526</t>
         </is>
       </c>
       <c r="C67" s="1" t="n">
@@ -1081,12 +1081,12 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>Argentea S.r.l.</t>
+          <t>Softline srl</t>
         </is>
       </c>
       <c r="B68" s="1" t="inlineStr">
         <is>
-          <t>02260390220</t>
+          <t>12299030150</t>
         </is>
       </c>
       <c r="C68" s="1" t="n">
@@ -1096,12 +1096,12 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>Ministero dello Sviluppo Economico</t>
+          <t>Banco BPM Società per Azioni</t>
         </is>
       </c>
       <c r="B69" s="1" t="inlineStr">
         <is>
-          <t>80230390587</t>
+          <t>09722490969</t>
         </is>
       </c>
       <c r="C69" s="1" t="n">
@@ -1111,12 +1111,12 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>BANCA MONTE DEI PASCHI DI SIENA</t>
+          <t>I.C.A. - Imposte Comunali Affini – s.r.l.</t>
         </is>
       </c>
       <c r="B70" s="1" t="inlineStr">
         <is>
-          <t>00884060526</t>
+          <t>02478610583</t>
         </is>
       </c>
       <c r="C70" s="1" t="n">
@@ -1126,12 +1126,12 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Softline srl</t>
+          <t>ARGO SOFTWARE SRL</t>
         </is>
       </c>
       <c r="B71" s="1" t="inlineStr">
         <is>
-          <t>12299030150</t>
+          <t>00838520880</t>
         </is>
       </c>
       <c r="C71" s="1" t="n">
@@ -1141,12 +1141,12 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>San Marco SPA</t>
+          <t>Engineering Ingegneria Informatica SpA</t>
         </is>
       </c>
       <c r="B72" s="1" t="inlineStr">
         <is>
-          <t>04142440728</t>
+          <t>00967720285</t>
         </is>
       </c>
       <c r="C72" s="1" t="n">
@@ -1156,12 +1156,12 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>Banco BPM Società per Azioni</t>
+          <t>San Marco SPA</t>
         </is>
       </c>
       <c r="B73" s="1" t="inlineStr">
         <is>
-          <t>09722490969</t>
+          <t>04142440728</t>
         </is>
       </c>
       <c r="C73" s="1" t="n">
@@ -1171,12 +1171,12 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>ARGO SOFTWARE SRL</t>
+          <t>Noviservice srl</t>
         </is>
       </c>
       <c r="B74" s="1" t="inlineStr">
         <is>
-          <t>00838520880</t>
+          <t>02789990922</t>
         </is>
       </c>
       <c r="C74" s="1" t="n">
@@ -1186,12 +1186,12 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>Engineering Ingegneria Informatica SpA</t>
+          <t>Agenzia Italiana del Farmaco - AIFA</t>
         </is>
       </c>
       <c r="B75" s="1" t="inlineStr">
         <is>
-          <t>00967720285</t>
+          <t>97345810580</t>
         </is>
       </c>
       <c r="C75" s="1" t="n">
@@ -1201,12 +1201,12 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>Noviservice srl</t>
+          <t>MegASP S.r.l.</t>
         </is>
       </c>
       <c r="B76" s="1" t="inlineStr">
         <is>
-          <t>02789990922</t>
+          <t>09898030151</t>
         </is>
       </c>
       <c r="C76" s="1" t="n">

--- a/data/pagopa-intermediari.xlsx
+++ b/data/pagopa-intermediari.xlsx
@@ -108,7 +108,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1074</t>
+          <t>1078</t>
         </is>
       </c>
     </row>
@@ -125,7 +125,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>796</t>
+          <t>802</t>
         </is>
       </c>
     </row>
@@ -142,7 +142,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>585</t>
         </is>
       </c>
     </row>
@@ -159,7 +159,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>502</t>
         </is>
       </c>
     </row>
@@ -176,7 +176,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>436</t>
         </is>
       </c>
     </row>
@@ -193,7 +193,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>417</t>
+          <t>424</t>
         </is>
       </c>
     </row>
@@ -210,7 +210,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>415</t>
         </is>
       </c>
     </row>
@@ -244,7 +244,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>350</t>
         </is>
       </c>
     </row>
@@ -278,7 +278,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>247</t>
         </is>
       </c>
     </row>
@@ -295,7 +295,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>239</t>
         </is>
       </c>
     </row>
@@ -312,7 +312,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>219</t>
         </is>
       </c>
     </row>
@@ -329,7 +329,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>197</t>
         </is>
       </c>
     </row>
@@ -346,7 +346,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>183</t>
         </is>
       </c>
     </row>
@@ -363,7 +363,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>174</t>
         </is>
       </c>
     </row>
@@ -380,7 +380,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>168</t>
         </is>
       </c>
     </row>
@@ -397,7 +397,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>163</t>
         </is>
       </c>
     </row>
@@ -414,7 +414,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>155</t>
         </is>
       </c>
     </row>
@@ -431,58 +431,58 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>124</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Regione Basilicata</t>
+          <t>Regione Toscana</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>80002950766</t>
+          <t>01386030488</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>110</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Regione Toscana</t>
+          <t>Next Step Solution</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>01386030488</t>
+          <t>02554480349</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>109</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Next Step Solution</t>
+          <t>Regione Basilicata</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>02554480349</t>
+          <t>80002950766</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>106</t>
         </is>
       </c>
     </row>
@@ -499,41 +499,41 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>95</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ANCITEL</t>
+          <t>Siscom SPA</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>07196850585</t>
+          <t>01778000040</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>92</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Siscom SPA</t>
+          <t>ANCITEL</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>01778000040</t>
+          <t>07196850585</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>86</t>
         </is>
       </c>
     </row>
@@ -550,7 +550,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>76</t>
         </is>
       </c>
     </row>
@@ -584,7 +584,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>67</t>
         </is>
       </c>
     </row>
@@ -635,7 +635,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>54</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>50</t>
         </is>
       </c>
     </row>
@@ -703,36 +703,36 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>43</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Consorzio I.T. Srl</t>
+          <t>UNIMATICA S.P.A</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>01321400192</t>
+          <t>02098391200</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>41</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>UNIMATICA S.P.A</t>
+          <t>Consorzio I.T. Srl</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>02098391200</t>
+          <t>01321400192</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -754,19 +754,19 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>37</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Unicredit, Societa' per Azioni</t>
+          <t>Regione Liguria</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>00348170101</t>
+          <t>00849050109</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -778,17 +778,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Regione Liguria</t>
+          <t>Unicredit, Societa' per Azioni</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>00849050109</t>
+          <t>00348170101</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>33</t>
         </is>
       </c>
     </row>
@@ -805,7 +805,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>28</t>
         </is>
       </c>
     </row>
@@ -822,7 +822,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>27</t>
         </is>
       </c>
     </row>
@@ -846,17 +846,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Regione Lazio</t>
+          <t>Nexi SpA</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>80143490581</t>
+          <t>13212880150</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -880,12 +880,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Nexi SpA</t>
+          <t>Regione Lazio</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>13212880150</t>
+          <t>80143490581</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -948,34 +948,34 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Crédit Agricole Group Solutions Società Consortile per azioni</t>
+          <t>Aric Agenzia Regionale di Informatica e Committenza</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>02771790348</t>
+          <t>91022630676</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Aric Agenzia Regionale di Informatica e Committenza</t>
+          <t>Crédit Agricole Group Solutions Società Consortile per azioni</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>91022630676</t>
+          <t>02771790348</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -1050,29 +1050,29 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Phoenix IT Solutions S.r.L</t>
+          <t>Argentea S.r.l.</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>07623321218</t>
+          <t>02260390220</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>CityPoste Payment Digital S.r.l.</t>
+          <t>Phoenix IT Solutions S.r.L</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>02003750672</t>
+          <t>07623321218</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1084,46 +1084,46 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Linea Comune Spa</t>
+          <t>ARGO SOFTWARE SRL</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>05591950489</t>
+          <t>00838520880</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ISWEB S.p.A.</t>
+          <t>CityPoste Payment Digital S.r.l.</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>01722270665</t>
+          <t>02003750672</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Argentea S.r.l.</t>
+          <t>e-SED Società Cooperativa</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>02260390220</t>
+          <t>02695640421</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1135,12 +1135,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>e-SED Società Cooperativa</t>
+          <t>Linea Comune Spa</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>02695640421</t>
+          <t>05591950489</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1152,63 +1152,63 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ICCREA Banca SpA</t>
+          <t>ISWEB S.p.A.</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>04774801007</t>
+          <t>01722270665</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Banco BPM Società per Azioni</t>
+          <t>ICCREA Banca SpA</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>09722490969</t>
+          <t>04774801007</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Ministero dello Sviluppo Economico</t>
+          <t>KOINE' SRL</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>80230390587</t>
+          <t>01934790971</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Agenzia Italiana del Farmaco - AIFA</t>
+          <t>Società Almaviva S.p.A.</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>97345810580</t>
+          <t>08450891000</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1220,12 +1220,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Noviservice srl</t>
+          <t>Banco BPM Società per Azioni</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>02789990922</t>
+          <t>09722490969</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1237,12 +1237,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Banca Nazionale del Lavoro S.p.A.</t>
+          <t>Ministero dello Sviluppo Economico</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>09339391006</t>
+          <t>80230390587</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1254,12 +1254,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ARGO SOFTWARE SRL</t>
+          <t>I.C.A. - Imposte Comunali Affini – s.r.l.</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>00838520880</t>
+          <t>02478610583</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1305,12 +1305,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Engineering Ingegneria Informatica SpA</t>
+          <t>Banca Nazionale del Lavoro S.p.A.</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>00967720285</t>
+          <t>09339391006</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -1322,12 +1322,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>I.C.A. - Imposte Comunali Affini – s.r.l.</t>
+          <t>Noviservice srl</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>02478610583</t>
+          <t>02789990922</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -1339,12 +1339,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>San Marco SPA</t>
+          <t>Agenzia Italiana del Farmaco - AIFA</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>04142440728</t>
+          <t>97345810580</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -1356,12 +1356,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>BANCA MONTE DEI PASCHI DI SIENA</t>
+          <t>Engineering Ingegneria Informatica SpA</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>00884060526</t>
+          <t>00967720285</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -1373,15 +1373,32 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Società Almaviva S.p.A.</t>
+          <t>San Marco SPA</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>08450891000</t>
+          <t>04142440728</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>BANCA MONTE DEI PASCHI DI SIENA</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>00884060526</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
         <is>
           <t>1</t>
         </is>

--- a/data/pagopa-intermediari.xlsx
+++ b/data/pagopa-intermediari.xlsx
@@ -108,7 +108,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1078</t>
+          <t>1080</t>
         </is>
       </c>
     </row>
@@ -159,7 +159,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>504</t>
         </is>
       </c>
     </row>
@@ -176,7 +176,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>440</t>
         </is>
       </c>
     </row>
@@ -210,7 +210,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>416</t>
         </is>
       </c>
     </row>
@@ -244,7 +244,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>351</t>
         </is>
       </c>
     </row>
@@ -295,7 +295,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>241</t>
         </is>
       </c>
     </row>
@@ -329,7 +329,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>198</t>
         </is>
       </c>
     </row>
@@ -431,7 +431,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>125</t>
         </is>
       </c>
     </row>
@@ -489,34 +489,34 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Regione Autonoma Friuli-Venezia Giulia</t>
+          <t>Siscom SPA</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>80014930327</t>
+          <t>01778000040</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>98</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Siscom SPA</t>
+          <t>Regione Autonoma Friuli-Venezia Giulia</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>01778000040</t>
+          <t>80014930327</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>98</t>
         </is>
       </c>
     </row>
@@ -550,7 +550,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>77</t>
         </is>
       </c>
     </row>
@@ -584,7 +584,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>68</t>
         </is>
       </c>
     </row>
@@ -635,7 +635,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>55</t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -805,7 +805,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -914,12 +914,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Servizi Locali SpA</t>
+          <t>Si.Form Consulting srl</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>03170580751</t>
+          <t>03943960827</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -931,17 +931,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Si.Form Consulting srl</t>
+          <t>Servizi Locali SpA</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>03943960827</t>
+          <t>03170580751</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -982,12 +982,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Comune di Catania</t>
+          <t>UBI Banca</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>00137020871</t>
+          <t>03053920165</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -999,12 +999,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>UBI Banca</t>
+          <t>Comune di Catania</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>03053920165</t>
+          <t>00137020871</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1067,12 +1067,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Phoenix IT Solutions S.r.L</t>
+          <t>ARGO SOFTWARE SRL</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>07623321218</t>
+          <t>00838520880</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1084,12 +1084,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ARGO SOFTWARE SRL</t>
+          <t>Phoenix IT Solutions S.r.L</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>00838520880</t>
+          <t>07623321218</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1169,12 +1169,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ICCREA Banca SpA</t>
+          <t>KOINE' SRL</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>04774801007</t>
+          <t>01934790971</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1186,12 +1186,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>KOINE' SRL</t>
+          <t>ICCREA Banca SpA</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>01934790971</t>
+          <t>04774801007</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1203,12 +1203,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Società Almaviva S.p.A.</t>
+          <t>I.C.A. - Imposte Comunali Affini – s.r.l.</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>08450891000</t>
+          <t>02478610583</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1220,12 +1220,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Banco BPM Società per Azioni</t>
+          <t>Agenzia Italiana del Farmaco - AIFA</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>09722490969</t>
+          <t>97345810580</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1237,12 +1237,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Ministero dello Sviluppo Economico</t>
+          <t>Banco BPM Società per Azioni</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>80230390587</t>
+          <t>09722490969</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1254,12 +1254,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>I.C.A. - Imposte Comunali Affini – s.r.l.</t>
+          <t>Ministero dello Sviluppo Economico</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>02478610583</t>
+          <t>80230390587</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1271,12 +1271,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Softline srl</t>
+          <t>Noviservice srl</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>12299030150</t>
+          <t>02789990922</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -1288,12 +1288,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>MegASP S.r.l.</t>
+          <t>Softline srl</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>09898030151</t>
+          <t>12299030150</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -1305,12 +1305,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Banca Nazionale del Lavoro S.p.A.</t>
+          <t>MegASP S.r.l.</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>09339391006</t>
+          <t>09898030151</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -1322,12 +1322,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Noviservice srl</t>
+          <t>Banca Nazionale del Lavoro S.p.A.</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>02789990922</t>
+          <t>09339391006</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -1339,12 +1339,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Agenzia Italiana del Farmaco - AIFA</t>
+          <t>Engineering Ingegneria Informatica SpA</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>97345810580</t>
+          <t>00967720285</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -1356,12 +1356,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Engineering Ingegneria Informatica SpA</t>
+          <t>BANCA MONTE DEI PASCHI DI SIENA</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>00967720285</t>
+          <t>00884060526</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -1390,12 +1390,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>BANCA MONTE DEI PASCHI DI SIENA</t>
+          <t>Società Almaviva S.p.A.</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>00884060526</t>
+          <t>08450891000</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">

--- a/data/pagopa-intermediari.xlsx
+++ b/data/pagopa-intermediari.xlsx
@@ -91,7 +91,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>8599</t>
+          <t>8603</t>
         </is>
       </c>
     </row>
@@ -125,7 +125,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>802</t>
+          <t>809</t>
         </is>
       </c>
     </row>
@@ -142,7 +142,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>604</t>
         </is>
       </c>
     </row>
@@ -159,7 +159,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>504</t>
+          <t>508</t>
         </is>
       </c>
     </row>
@@ -176,7 +176,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>443</t>
         </is>
       </c>
     </row>
@@ -210,7 +210,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>418</t>
         </is>
       </c>
     </row>
@@ -227,7 +227,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>376</t>
         </is>
       </c>
     </row>
@@ -244,7 +244,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>357</t>
         </is>
       </c>
     </row>
@@ -278,7 +278,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>249</t>
         </is>
       </c>
     </row>
@@ -295,7 +295,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>246</t>
         </is>
       </c>
     </row>
@@ -329,7 +329,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>200</t>
         </is>
       </c>
     </row>
@@ -363,7 +363,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>177</t>
         </is>
       </c>
     </row>
@@ -397,7 +397,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>167</t>
         </is>
       </c>
     </row>
@@ -438,68 +438,68 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Regione Toscana</t>
+          <t>Siscom SPA</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>01386030488</t>
+          <t>01778000040</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>115</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Next Step Solution</t>
+          <t>Regione Toscana</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>02554480349</t>
+          <t>01386030488</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>113</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Regione Basilicata</t>
+          <t>Next Step Solution</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>80002950766</t>
+          <t>02554480349</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>111</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Siscom SPA</t>
+          <t>Regione Basilicata</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>01778000040</t>
+          <t>80002950766</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>106</t>
         </is>
       </c>
     </row>
@@ -550,7 +550,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>80</t>
         </is>
       </c>
     </row>
@@ -567,7 +567,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>73</t>
         </is>
       </c>
     </row>
@@ -608,102 +608,102 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>NORDCOM</t>
+          <t>Regione Umbria</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>13384100155</t>
+          <t>80000130544</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>57</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Regione Umbria</t>
+          <t>NORDCOM</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>80000130544</t>
+          <t>13384100155</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>56</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Italriscossioni Società Italiana di Fiscalità Locale S.r.l.</t>
+          <t>DCS SOFTWARE E SERVIZI S.R.L.</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>06092371001</t>
+          <t>08063140019</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>52</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Bluenext S.r.l.</t>
+          <t>Italriscossioni Società Italiana di Fiscalità Locale S.r.l.</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>04228480408</t>
+          <t>06092371001</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>50</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>CINECA consorzio universitario</t>
+          <t>Bluenext S.r.l.</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>00317740371</t>
+          <t>04228480408</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>46</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>DCS SOFTWARE E SERVIZI S.R.L.</t>
+          <t>CINECA consorzio universitario</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>08063140019</t>
+          <t>00317740371</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>44</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>43</t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>35</t>
         </is>
       </c>
     </row>
@@ -788,7 +788,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -829,29 +829,29 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Citta' Metropolitana di Roma Capitale</t>
+          <t>Comune di Palermo</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>80034390585</t>
+          <t>80016350821</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>24</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Nexi SpA</t>
+          <t>Citta' Metropolitana di Roma Capitale</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>13212880150</t>
+          <t>80034390585</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -863,29 +863,29 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ANDREANI TRIBUTI srl</t>
+          <t>Nexi SpA</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>01412920439</t>
+          <t>13212880150</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Regione Lazio</t>
+          <t>ANDREANI TRIBUTI srl</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>80143490581</t>
+          <t>01412920439</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -897,29 +897,29 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Comune di Palermo</t>
+          <t>Regione Lazio</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>80016350821</t>
+          <t>80143490581</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Si.Form Consulting srl</t>
+          <t>Servizi Locali SpA</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>03943960827</t>
+          <t>03170580751</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -931,12 +931,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Servizi Locali SpA</t>
+          <t>Si.Form Consulting srl</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>03170580751</t>
+          <t>03943960827</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -948,12 +948,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Aric Agenzia Regionale di Informatica e Committenza</t>
+          <t>Crédit Agricole Group Solutions Società Consortile per azioni</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>91022630676</t>
+          <t>02771790348</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -965,63 +965,63 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Crédit Agricole Group Solutions Società Consortile per azioni</t>
+          <t>Aric Agenzia Regionale di Informatica e Committenza</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>02771790348</t>
+          <t>91022630676</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>UBI Banca</t>
+          <t>Comune di Catania</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>03053920165</t>
+          <t>00137020871</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Comune di Catania</t>
+          <t>UBI Banca</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>00137020871</t>
+          <t>03053920165</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ARCA Servizi s.r.l</t>
+          <t>Be Smart s.r.l.</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>09106071005</t>
+          <t>05817461006</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1033,12 +1033,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Be Smart s.r.l.</t>
+          <t>ARCA Servizi s.r.l</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>05817461006</t>
+          <t>09106071005</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1060,19 +1060,19 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ARGO SOFTWARE SRL</t>
+          <t>Phoenix IT Solutions S.r.L</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>00838520880</t>
+          <t>07623321218</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1084,12 +1084,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Phoenix IT Solutions S.r.L</t>
+          <t>CityPoste Payment Digital S.r.l.</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>07623321218</t>
+          <t>02003750672</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1101,12 +1101,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>CityPoste Payment Digital S.r.l.</t>
+          <t>ARGO SOFTWARE SRL</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>02003750672</t>
+          <t>00838520880</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1118,12 +1118,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>e-SED Società Cooperativa</t>
+          <t>Linea Comune Spa</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>02695640421</t>
+          <t>05591950489</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1135,12 +1135,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Linea Comune Spa</t>
+          <t>e-SED Società Cooperativa</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>05591950489</t>
+          <t>02695640421</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1169,12 +1169,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>KOINE' SRL</t>
+          <t>Softline srl</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>01934790971</t>
+          <t>12299030150</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1186,12 +1186,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ICCREA Banca SpA</t>
+          <t>KOINE' SRL</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>04774801007</t>
+          <t>01934790971</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1203,29 +1203,29 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>I.C.A. - Imposte Comunali Affini – s.r.l.</t>
+          <t>ICCREA Banca SpA</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>02478610583</t>
+          <t>04774801007</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Agenzia Italiana del Farmaco - AIFA</t>
+          <t>BANCA MONTE DEI PASCHI DI SIENA</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>97345810580</t>
+          <t>00884060526</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1237,12 +1237,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Banco BPM Società per Azioni</t>
+          <t>Società Almaviva S.p.A.</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>09722490969</t>
+          <t>08450891000</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1254,12 +1254,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Ministero dello Sviluppo Economico</t>
+          <t>Banca Nazionale del Lavoro S.p.A.</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>80230390587</t>
+          <t>09339391006</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1271,12 +1271,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Noviservice srl</t>
+          <t>Banco BPM Società per Azioni</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>02789990922</t>
+          <t>09722490969</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -1288,12 +1288,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Softline srl</t>
+          <t>Engineering Ingegneria Informatica SpA</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>12299030150</t>
+          <t>00967720285</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -1305,12 +1305,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>MegASP S.r.l.</t>
+          <t>Noviservice srl</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>09898030151</t>
+          <t>02789990922</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -1322,12 +1322,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Banca Nazionale del Lavoro S.p.A.</t>
+          <t>MegASP S.r.l.</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>09339391006</t>
+          <t>09898030151</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -1339,12 +1339,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Engineering Ingegneria Informatica SpA</t>
+          <t>I.C.A. - Imposte Comunali Affini – s.r.l.</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>00967720285</t>
+          <t>02478610583</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -1356,12 +1356,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>BANCA MONTE DEI PASCHI DI SIENA</t>
+          <t>Agenzia Italiana del Farmaco - AIFA</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>00884060526</t>
+          <t>97345810580</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -1373,12 +1373,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>San Marco SPA</t>
+          <t>Ministero dello Sviluppo Economico</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>04142440728</t>
+          <t>80230390587</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -1390,12 +1390,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Società Almaviva S.p.A.</t>
+          <t>San Marco SPA</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>08450891000</t>
+          <t>04142440728</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">

--- a/data/pagopa-intermediari.xlsx
+++ b/data/pagopa-intermediari.xlsx
@@ -108,7 +108,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1080</t>
+          <t>1083</t>
         </is>
       </c>
     </row>
@@ -142,7 +142,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>604</t>
+          <t>608</t>
         </is>
       </c>
     </row>
@@ -159,7 +159,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>508</t>
+          <t>511</t>
         </is>
       </c>
     </row>
@@ -193,7 +193,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>429</t>
         </is>
       </c>
     </row>
@@ -210,7 +210,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>420</t>
         </is>
       </c>
     </row>
@@ -244,7 +244,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>362</t>
         </is>
       </c>
     </row>
@@ -278,7 +278,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>252</t>
         </is>
       </c>
     </row>
@@ -295,7 +295,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>249</t>
         </is>
       </c>
     </row>
@@ -312,7 +312,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>227</t>
         </is>
       </c>
     </row>
@@ -329,7 +329,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>203</t>
         </is>
       </c>
     </row>
@@ -363,7 +363,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>181</t>
         </is>
       </c>
     </row>
@@ -380,7 +380,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>170</t>
         </is>
       </c>
     </row>
@@ -397,7 +397,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>170</t>
         </is>
       </c>
     </row>
@@ -431,7 +431,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>127</t>
         </is>
       </c>
     </row>
@@ -448,7 +448,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>122</t>
         </is>
       </c>
     </row>
@@ -550,7 +550,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>82</t>
         </is>
       </c>
     </row>
@@ -584,7 +584,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>69</t>
         </is>
       </c>
     </row>
@@ -601,7 +601,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>61</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>51</t>
         </is>
       </c>
     </row>
@@ -788,7 +788,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>35</t>
         </is>
       </c>
     </row>
@@ -822,7 +822,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -846,12 +846,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Citta' Metropolitana di Roma Capitale</t>
+          <t>Nexi SpA</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>80034390585</t>
+          <t>13212880150</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -863,12 +863,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Nexi SpA</t>
+          <t>Citta' Metropolitana di Roma Capitale</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>13212880150</t>
+          <t>80034390585</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -914,12 +914,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Servizi Locali SpA</t>
+          <t>Si.Form Consulting srl</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>03170580751</t>
+          <t>03943960827</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -931,12 +931,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Si.Form Consulting srl</t>
+          <t>Servizi Locali SpA</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>03943960827</t>
+          <t>03170580751</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -982,12 +982,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Comune di Catania</t>
+          <t>UBI Banca</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>00137020871</t>
+          <t>03053920165</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -999,12 +999,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>UBI Banca</t>
+          <t>Comune di Catania</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>03053920165</t>
+          <t>00137020871</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1016,29 +1016,29 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Be Smart s.r.l.</t>
+          <t>ARCA Servizi s.r.l</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>05817461006</t>
+          <t>09106071005</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ARCA Servizi s.r.l</t>
+          <t>Be Smart s.r.l.</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>09106071005</t>
+          <t>05817461006</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1067,29 +1067,29 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Phoenix IT Solutions S.r.L</t>
+          <t>ARGO SOFTWARE SRL</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>07623321218</t>
+          <t>00838520880</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>CityPoste Payment Digital S.r.l.</t>
+          <t>Phoenix IT Solutions S.r.L</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>02003750672</t>
+          <t>07623321218</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1101,12 +1101,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ARGO SOFTWARE SRL</t>
+          <t>CityPoste Payment Digital S.r.l.</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>00838520880</t>
+          <t>02003750672</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1118,12 +1118,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Linea Comune Spa</t>
+          <t>ISWEB S.p.A.</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>05591950489</t>
+          <t>01722270665</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1152,12 +1152,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ISWEB S.p.A.</t>
+          <t>Linea Comune Spa</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>01722270665</t>
+          <t>05591950489</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1169,12 +1169,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Softline srl</t>
+          <t>KOINE' SRL</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>12299030150</t>
+          <t>01934790971</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1186,12 +1186,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>KOINE' SRL</t>
+          <t>Softline srl</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>01934790971</t>
+          <t>12299030150</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1220,12 +1220,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BANCA MONTE DEI PASCHI DI SIENA</t>
+          <t>San Marco SPA</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>00884060526</t>
+          <t>04142440728</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1237,12 +1237,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Società Almaviva S.p.A.</t>
+          <t>BANCA MONTE DEI PASCHI DI SIENA</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>08450891000</t>
+          <t>00884060526</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1254,12 +1254,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Banca Nazionale del Lavoro S.p.A.</t>
+          <t>Società Almaviva S.p.A.</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>09339391006</t>
+          <t>08450891000</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1271,12 +1271,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Banco BPM Società per Azioni</t>
+          <t>Engineering Ingegneria Informatica SpA</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>09722490969</t>
+          <t>00967720285</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -1288,12 +1288,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Engineering Ingegneria Informatica SpA</t>
+          <t>Banco BPM Società per Azioni</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>00967720285</t>
+          <t>09722490969</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -1305,12 +1305,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Noviservice srl</t>
+          <t>Ministero dello Sviluppo Economico</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>02789990922</t>
+          <t>80230390587</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -1322,12 +1322,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>MegASP S.r.l.</t>
+          <t>Agenzia Italiana del Farmaco - AIFA</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>09898030151</t>
+          <t>97345810580</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -1339,12 +1339,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>I.C.A. - Imposte Comunali Affini – s.r.l.</t>
+          <t>Noviservice srl</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>02478610583</t>
+          <t>02789990922</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -1356,12 +1356,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Agenzia Italiana del Farmaco - AIFA</t>
+          <t>Banca Nazionale del Lavoro S.p.A.</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>97345810580</t>
+          <t>09339391006</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -1373,12 +1373,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Ministero dello Sviluppo Economico</t>
+          <t>MegASP S.r.l.</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>80230390587</t>
+          <t>09898030151</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -1390,12 +1390,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>San Marco SPA</t>
+          <t>I.C.A. - Imposte Comunali Affini – s.r.l.</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>04142440728</t>
+          <t>02478610583</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">

--- a/data/pagopa-intermediari.xlsx
+++ b/data/pagopa-intermediari.xlsx
@@ -81,7 +81,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ministero dell'Istruzione, dell'Universita' e della Ricerca</t>
+          <t>Ministero dell'Istruzione, Ministero dell'Universita' e della Ricerca</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -108,7 +108,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1083</t>
+          <t>1084</t>
         </is>
       </c>
     </row>
@@ -125,7 +125,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>809</t>
+          <t>812</t>
         </is>
       </c>
     </row>
@@ -142,7 +142,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>633</t>
         </is>
       </c>
     </row>
@@ -159,7 +159,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>513</t>
         </is>
       </c>
     </row>
@@ -176,7 +176,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>452</t>
         </is>
       </c>
     </row>
@@ -193,7 +193,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>430</t>
         </is>
       </c>
     </row>
@@ -210,7 +210,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>421</t>
         </is>
       </c>
     </row>
@@ -227,7 +227,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>380</t>
         </is>
       </c>
     </row>
@@ -244,7 +244,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>369</t>
         </is>
       </c>
     </row>
@@ -278,7 +278,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>255</t>
         </is>
       </c>
     </row>
@@ -295,7 +295,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>254</t>
         </is>
       </c>
     </row>
@@ -312,7 +312,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>238</t>
         </is>
       </c>
     </row>
@@ -329,41 +329,41 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>205</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Alto Adige Riscossioni Spa</t>
+          <t>Regione Marche</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>02805390214</t>
+          <t>80008630420</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>184</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Regione Marche</t>
+          <t>Alto Adige Riscossioni Spa</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>80008630420</t>
+          <t>02805390214</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>183</t>
         </is>
       </c>
     </row>
@@ -380,7 +380,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>174</t>
         </is>
       </c>
     </row>
@@ -397,7 +397,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>173</t>
         </is>
       </c>
     </row>
@@ -421,68 +421,68 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Regione Puglia</t>
+          <t>Siscom SPA</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>80017210727</t>
+          <t>01778000040</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>128</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Siscom SPA</t>
+          <t>Regione Puglia</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>01778000040</t>
+          <t>80017210727</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>127</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Regione Toscana</t>
+          <t>Next Step Solution</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>01386030488</t>
+          <t>02554480349</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>118</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Next Step Solution</t>
+          <t>Regione Toscana</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>02554480349</t>
+          <t>01386030488</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>115</t>
         </is>
       </c>
     </row>
@@ -533,7 +533,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>87</t>
         </is>
       </c>
     </row>
@@ -550,7 +550,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>84</t>
         </is>
       </c>
     </row>
@@ -567,7 +567,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>81</t>
         </is>
       </c>
     </row>
@@ -584,7 +584,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>75</t>
         </is>
       </c>
     </row>
@@ -601,7 +601,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>63</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>53</t>
         </is>
       </c>
     </row>
@@ -754,7 +754,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>39</t>
         </is>
       </c>
     </row>
@@ -805,7 +805,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -822,7 +822,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>31</t>
         </is>
       </c>
     </row>
@@ -948,12 +948,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Crédit Agricole Group Solutions Società Consortile per azioni</t>
+          <t>Aric Agenzia Regionale di Informatica e Committenza</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>02771790348</t>
+          <t>91022630676</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -965,12 +965,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Aric Agenzia Regionale di Informatica e Committenza</t>
+          <t>Crédit Agricole Group Solutions Società Consortile per azioni</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>91022630676</t>
+          <t>02771790348</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1033,12 +1033,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Be Smart s.r.l.</t>
+          <t>Argentea S.r.l.</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>05817461006</t>
+          <t>02260390220</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1050,12 +1050,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Argentea S.r.l.</t>
+          <t>Noviservice srl</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>02260390220</t>
+          <t>02789990922</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1067,34 +1067,34 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ARGO SOFTWARE SRL</t>
+          <t>Be Smart s.r.l.</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>00838520880</t>
+          <t>05817461006</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Phoenix IT Solutions S.r.L</t>
+          <t>ARGO SOFTWARE SRL</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>07623321218</t>
+          <t>00838520880</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1118,17 +1118,17 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ISWEB S.p.A.</t>
+          <t>Phoenix IT Solutions S.r.L</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>01722270665</t>
+          <t>07623321218</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1152,12 +1152,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Linea Comune Spa</t>
+          <t>ISWEB S.p.A.</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>05591950489</t>
+          <t>01722270665</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1169,29 +1169,29 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>KOINE' SRL</t>
+          <t>Linea Comune Spa</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>01934790971</t>
+          <t>05591950489</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Softline srl</t>
+          <t>KOINE' SRL</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>12299030150</t>
+          <t>01934790971</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1220,46 +1220,46 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>San Marco SPA</t>
+          <t>Regione Calabria</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>04142440728</t>
+          <t>02205340793</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BANCA MONTE DEI PASCHI DI SIENA</t>
+          <t>Softline srl</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>00884060526</t>
+          <t>12299030150</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Società Almaviva S.p.A.</t>
+          <t>San Marco SPA</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>08450891000</t>
+          <t>04142440728</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1288,12 +1288,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Banco BPM Società per Azioni</t>
+          <t>Società Almaviva S.p.A.</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>09722490969</t>
+          <t>08450891000</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -1305,12 +1305,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Ministero dello Sviluppo Economico</t>
+          <t>Agenzia Italiana del Farmaco - AIFA</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>80230390587</t>
+          <t>97345810580</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -1322,12 +1322,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Agenzia Italiana del Farmaco - AIFA</t>
+          <t>I.C.A. - Imposte Comunali Affini – s.r.l.</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>97345810580</t>
+          <t>02478610583</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -1339,12 +1339,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Noviservice srl</t>
+          <t>BANCA MONTE DEI PASCHI DI SIENA</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>02789990922</t>
+          <t>00884060526</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -1356,12 +1356,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Banca Nazionale del Lavoro S.p.A.</t>
+          <t>Open Software S.r.l.</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>09339391006</t>
+          <t>02810000279</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -1373,12 +1373,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>MegASP S.r.l.</t>
+          <t>Banco BPM Società per Azioni</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>09898030151</t>
+          <t>09722490969</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -1390,15 +1390,66 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>I.C.A. - Imposte Comunali Affini – s.r.l.</t>
+          <t>WAN S.r.l.</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>02478610583</t>
+          <t>03805290040</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Banca Nazionale del Lavoro S.p.A.</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>09339391006</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Ministero dello Sviluppo Economico</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>80230390587</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>MegASP S.r.l.</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>09898030151</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
         <is>
           <t>1</t>
         </is>
